--- a/Others/Cash A.xlsx
+++ b/Others/Cash A.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8059E19-4F6A-4EB6-B166-346DE4D8F39F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEEAD9D-B0F6-4FA7-9922-64DC4C4A7D43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="33">
   <si>
     <t>Tulip-2</t>
   </si>
@@ -108,16 +108,10 @@
     <t>Total=</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                          </t>
-  </si>
-  <si>
     <t>Mugdho Corporaton</t>
   </si>
   <si>
     <t>Rozy Market, Station Bazar, Natore</t>
-  </si>
-  <si>
-    <t>Date: 07.11.19</t>
   </si>
   <si>
     <t>Mugdho Corporation</t>
@@ -127,6 +121,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Date: 09.11.19</t>
+  </si>
+  <si>
+    <t>Jakir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    n</t>
   </si>
 </sst>
 </file>
@@ -471,12 +474,73 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -486,54 +550,70 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -541,111 +621,34 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2571,60 +2574,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
@@ -2633,10 +2636,10 @@
       <c r="D5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="34"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="14" t="s">
         <v>5</v>
       </c>
@@ -2651,10 +2654,10 @@
       <c r="D6" s="13">
         <v>1000</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="39">
         <v>50</v>
       </c>
-      <c r="F6" s="29"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="13">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>50000</v>
@@ -2670,10 +2673,10 @@
       <c r="D7" s="13">
         <v>500</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="39">
         <v>16</v>
       </c>
-      <c r="F7" s="29"/>
+      <c r="F7" s="39"/>
       <c r="G7" s="13">
         <f t="shared" si="0"/>
         <v>8000</v>
@@ -2689,10 +2692,10 @@
       <c r="D8" s="13">
         <v>100</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="39">
         <v>151</v>
       </c>
-      <c r="F8" s="29"/>
+      <c r="F8" s="39"/>
       <c r="G8" s="13">
         <f t="shared" si="0"/>
         <v>15100</v>
@@ -2708,10 +2711,10 @@
       <c r="D9" s="13">
         <v>50</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="39">
         <v>58</v>
       </c>
-      <c r="F9" s="29"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="13">
         <f t="shared" si="0"/>
         <v>2900</v>
@@ -2727,8 +2730,8 @@
       <c r="D10" s="13">
         <v>20</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2744,8 +2747,8 @@
       <c r="D11" s="13">
         <v>10</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
       <c r="G11" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2758,10 +2761,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="34"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14">
         <f>SUM(G6:G11)</f>
@@ -2808,58 +2811,58 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="35"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -2869,11 +2872,11 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -2948,60 +2951,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -3010,10 +3013,10 @@
       <c r="D31" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E31" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="34"/>
+      <c r="F31" s="35"/>
       <c r="G31" s="15" t="s">
         <v>5</v>
       </c>
@@ -3028,10 +3031,10 @@
       <c r="D32" s="16">
         <v>1000</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="39">
         <v>50</v>
       </c>
-      <c r="F32" s="29"/>
+      <c r="F32" s="39"/>
       <c r="G32" s="16">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>50000</v>
@@ -3047,10 +3050,10 @@
       <c r="D33" s="16">
         <v>500</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="39">
         <v>116</v>
       </c>
-      <c r="F33" s="29"/>
+      <c r="F33" s="39"/>
       <c r="G33" s="16">
         <f t="shared" si="1"/>
         <v>58000</v>
@@ -3066,10 +3069,10 @@
       <c r="D34" s="16">
         <v>100</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="39">
         <v>151</v>
       </c>
-      <c r="F34" s="29"/>
+      <c r="F34" s="39"/>
       <c r="G34" s="16">
         <f t="shared" si="1"/>
         <v>15100</v>
@@ -3085,10 +3088,10 @@
       <c r="D35" s="16">
         <v>50</v>
       </c>
-      <c r="E35" s="29">
+      <c r="E35" s="39">
         <v>58</v>
       </c>
-      <c r="F35" s="29"/>
+      <c r="F35" s="39"/>
       <c r="G35" s="16">
         <f t="shared" si="1"/>
         <v>2900</v>
@@ -3104,8 +3107,8 @@
       <c r="D36" s="16">
         <v>20</v>
       </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
       <c r="G36" s="16">
         <f>SUM(D36*E36)</f>
         <v>0</v>
@@ -3121,8 +3124,8 @@
       <c r="D37" s="16">
         <v>10</v>
       </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
       <c r="G37" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3135,10 +3138,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="26"/>
+      <c r="E38" s="47"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15">
         <f>SUM(G32:G37)</f>
@@ -3185,58 +3188,58 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="27"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="27" t="s">
+      <c r="H42" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="28" t="s">
+      <c r="H45" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
@@ -3246,11 +3249,11 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="23" t="s">
+      <c r="H46" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -3278,6 +3281,32 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -3290,32 +3319,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="H43:J44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:J45"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.25" footer="0"/>
   <pageSetup scale="85" orientation="portrait" r:id="rId1"/>
@@ -3325,10 +3328,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33:F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3345,9 +3348,9 @@
     <col min="10" max="10" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="56"/>
       <c r="C1" s="56"/>
@@ -3360,9 +3363,9 @@
       <c r="J1" s="56"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="57"/>
@@ -3375,7 +3378,7 @@
       <c r="J2" s="57"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>9</v>
       </c>
@@ -3390,9 +3393,9 @@
       <c r="J3" s="57"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" s="58"/>
       <c r="C4" s="58"/>
@@ -3405,338 +3408,343 @@
       <c r="J4" s="58"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60" t="s">
+    <row r="5" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="60" t="s">
+      <c r="F5" s="59"/>
+      <c r="G5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-    </row>
-    <row r="6" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="62">
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="25">
         <v>1000</v>
       </c>
-      <c r="E6" s="63">
-        <v>174</v>
-      </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="62">
+      <c r="E6" s="60">
+        <v>110</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="25">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
-        <v>174000</v>
-      </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-    </row>
-    <row r="7" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="62">
+        <v>110000</v>
+      </c>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="25">
         <v>500</v>
       </c>
-      <c r="E7" s="63">
-        <v>312</v>
-      </c>
-      <c r="F7" s="63"/>
-      <c r="G7" s="62">
+      <c r="E7" s="60">
+        <v>200</v>
+      </c>
+      <c r="F7" s="60"/>
+      <c r="G7" s="25">
         <f t="shared" si="0"/>
-        <v>156000</v>
-      </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-    </row>
-    <row r="8" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="62">
+        <v>100000</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="25">
         <v>100</v>
       </c>
-      <c r="E8" s="63">
-        <v>700</v>
-      </c>
-      <c r="F8" s="63"/>
-      <c r="G8" s="62">
+      <c r="E8" s="60">
+        <v>300</v>
+      </c>
+      <c r="F8" s="60"/>
+      <c r="G8" s="25">
         <f t="shared" si="0"/>
-        <v>70000</v>
-      </c>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-    </row>
-    <row r="9" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="62">
+        <v>30000</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="25">
         <v>50</v>
       </c>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="62">
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-    </row>
-    <row r="10" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="62">
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="25">
         <v>20</v>
       </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="62">
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-    </row>
-    <row r="11" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="62">
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="25">
         <v>10</v>
       </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="62">
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-    </row>
-    <row r="12" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="63" t="s">
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="63"/>
-      <c r="F12" s="62"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="21">
         <f>SUM(G6:G11)</f>
-        <v>400000</v>
-      </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65" t="s">
+        <v>240000</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66" t="s">
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="67" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
     </row>
     <row r="25" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="56"/>
       <c r="C28" s="56"/>
@@ -3750,7 +3758,7 @@
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="57" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" s="57"/>
       <c r="C29" s="57"/>
@@ -3776,12 +3784,12 @@
       <c r="I30" s="58"/>
       <c r="J30" s="58"/>
       <c r="K30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="58" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" s="58"/>
       <c r="C31" s="58"/>
@@ -3794,251 +3802,251 @@
       <c r="J31" s="58"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="60" t="s">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="61" t="s">
+      <c r="E32" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="61"/>
-      <c r="G32" s="60" t="s">
+      <c r="F32" s="59"/>
+      <c r="G32" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
     </row>
     <row r="33" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="71">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="29">
         <v>1000</v>
       </c>
-      <c r="E33" s="63">
-        <v>174</v>
-      </c>
-      <c r="F33" s="63"/>
-      <c r="G33" s="71">
+      <c r="E33" s="60">
+        <v>110</v>
+      </c>
+      <c r="F33" s="60"/>
+      <c r="G33" s="29">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
-        <v>174000</v>
-      </c>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
+        <v>110000</v>
+      </c>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
     </row>
     <row r="34" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="71">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="29">
         <v>500</v>
       </c>
-      <c r="E34" s="63">
-        <v>312</v>
-      </c>
-      <c r="F34" s="63"/>
-      <c r="G34" s="71">
+      <c r="E34" s="60">
+        <v>200</v>
+      </c>
+      <c r="F34" s="60"/>
+      <c r="G34" s="29">
         <f t="shared" si="1"/>
-        <v>156000</v>
-      </c>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
+        <v>100000</v>
+      </c>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
     </row>
     <row r="35" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="71">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="29">
         <v>100</v>
       </c>
-      <c r="E35" s="63">
-        <v>700</v>
-      </c>
-      <c r="F35" s="63"/>
-      <c r="G35" s="71">
+      <c r="E35" s="60">
+        <v>300</v>
+      </c>
+      <c r="F35" s="60"/>
+      <c r="G35" s="29">
         <f t="shared" si="1"/>
-        <v>70000</v>
-      </c>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
+        <v>30000</v>
+      </c>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
     </row>
     <row r="36" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="71">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="29">
         <v>50</v>
       </c>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="71">
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
     </row>
     <row r="37" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="71">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="29">
         <v>20</v>
       </c>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="71">
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="29">
         <f>SUM(D37*E37)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
     </row>
     <row r="38" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="71">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="29">
         <v>10</v>
       </c>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="71">
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
     </row>
     <row r="39" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="72" t="s">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="73"/>
-      <c r="F39" s="71"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="29"/>
       <c r="G39" s="22">
         <f>SUM(G33:G38)</f>
-        <v>400000</v>
-      </c>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
+        <v>240000</v>
+      </c>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="59"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
     </row>
     <row r="43" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="64"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65" t="s">
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="66" t="s">
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="66"/>
-      <c r="J43" s="66"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="74"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="75"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="74"/>
-      <c r="B45" s="74"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="75"/>
-      <c r="J45" s="75"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
     </row>
     <row r="46" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="76"/>
-      <c r="B46" s="76"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="78" t="s">
+      <c r="A46" s="31"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="I46" s="79"/>
-      <c r="J46" s="79"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="80"/>
-      <c r="B47" s="80"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="82"/>
-      <c r="J47" s="82"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
@@ -4066,6 +4074,26 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H43:J43"/>
@@ -4080,26 +4108,6 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
@@ -4130,63 +4138,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4196,10 +4204,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="34"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4214,10 +4222,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="39">
         <v>68</v>
       </c>
-      <c r="F6" s="29"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>68000</v>
@@ -4233,10 +4241,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="39">
         <v>135</v>
       </c>
-      <c r="F7" s="29"/>
+      <c r="F7" s="39"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>67500</v>
@@ -4252,10 +4260,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="39">
         <v>53</v>
       </c>
-      <c r="F8" s="29"/>
+      <c r="F8" s="39"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>5300</v>
@@ -4271,10 +4279,10 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="39">
         <v>2</v>
       </c>
-      <c r="F9" s="29"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4290,10 +4298,10 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="39">
         <v>5</v>
       </c>
-      <c r="F10" s="29"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4309,8 +4317,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4323,10 +4331,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="34"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -4373,76 +4381,76 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="35"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="28"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -4517,60 +4525,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
     </row>
     <row r="31" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -4579,10 +4587,10 @@
       <c r="D31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="37"/>
+      <c r="F31" s="68"/>
       <c r="G31" s="9" t="s">
         <v>5</v>
       </c>
@@ -4597,10 +4605,10 @@
       <c r="D32" s="2">
         <v>1000</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="67">
         <v>68</v>
       </c>
-      <c r="F32" s="41"/>
+      <c r="F32" s="67"/>
       <c r="G32" s="2">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>68000</v>
@@ -4616,10 +4624,10 @@
       <c r="D33" s="2">
         <v>500</v>
       </c>
-      <c r="E33" s="41">
+      <c r="E33" s="67">
         <v>135</v>
       </c>
-      <c r="F33" s="41"/>
+      <c r="F33" s="67"/>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>67500</v>
@@ -4635,10 +4643,10 @@
       <c r="D34" s="2">
         <v>100</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="67">
         <v>53</v>
       </c>
-      <c r="F34" s="41"/>
+      <c r="F34" s="67"/>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
         <v>5300</v>
@@ -4654,10 +4662,10 @@
       <c r="D35" s="2">
         <v>50</v>
       </c>
-      <c r="E35" s="41">
+      <c r="E35" s="67">
         <v>2</v>
       </c>
-      <c r="F35" s="41"/>
+      <c r="F35" s="67"/>
       <c r="G35" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4673,10 +4681,10 @@
       <c r="D36" s="2">
         <v>20</v>
       </c>
-      <c r="E36" s="41">
+      <c r="E36" s="67">
         <v>5</v>
       </c>
-      <c r="F36" s="41"/>
+      <c r="F36" s="67"/>
       <c r="G36" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4692,8 +4700,8 @@
       <c r="D37" s="2">
         <v>10</v>
       </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4706,10 +4714,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="40" t="s">
+      <c r="D38" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="40"/>
+      <c r="E38" s="66"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9">
         <f>SUM(G32:G37)</f>
@@ -4756,76 +4764,76 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="27"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="27" t="s">
+      <c r="H42" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="28"/>
+      <c r="B45" s="41"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="28" t="s">
+      <c r="H45" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="39"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="23" t="s">
+      <c r="H46" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -4853,6 +4861,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A46:B46"/>
@@ -4869,30 +4901,6 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4924,63 +4932,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4990,10 +4998,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="34"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -5008,10 +5016,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="39">
         <v>44</v>
       </c>
-      <c r="F6" s="29"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>44000</v>
@@ -5027,10 +5035,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="39">
         <v>118</v>
       </c>
-      <c r="F7" s="29"/>
+      <c r="F7" s="39"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>59000</v>
@@ -5046,10 +5054,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="39">
         <v>510</v>
       </c>
-      <c r="F8" s="29"/>
+      <c r="F8" s="39"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>51000</v>
@@ -5065,8 +5073,8 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5082,8 +5090,8 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5099,8 +5107,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5113,10 +5121,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="34"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -5163,72 +5171,72 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="35"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -5303,60 +5311,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
     </row>
     <row r="31" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -5365,10 +5373,10 @@
       <c r="D31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E31" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="34"/>
+      <c r="F31" s="35"/>
       <c r="G31" s="12" t="s">
         <v>5</v>
       </c>
@@ -5383,10 +5391,10 @@
       <c r="D32" s="11">
         <v>1000</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="39">
         <v>44</v>
       </c>
-      <c r="F32" s="29"/>
+      <c r="F32" s="39"/>
       <c r="G32" s="11">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>44000</v>
@@ -5402,10 +5410,10 @@
       <c r="D33" s="11">
         <v>500</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="39">
         <v>118</v>
       </c>
-      <c r="F33" s="29"/>
+      <c r="F33" s="39"/>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
         <v>59000</v>
@@ -5421,10 +5429,10 @@
       <c r="D34" s="11">
         <v>100</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="39">
         <v>510</v>
       </c>
-      <c r="F34" s="29"/>
+      <c r="F34" s="39"/>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
         <v>51000</v>
@@ -5440,8 +5448,8 @@
       <c r="D35" s="11">
         <v>50</v>
       </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5457,8 +5465,8 @@
       <c r="D36" s="11">
         <v>20</v>
       </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
       <c r="G36" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5474,8 +5482,8 @@
       <c r="D37" s="11">
         <v>10</v>
       </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
       <c r="G37" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5488,10 +5496,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="43" t="s">
+      <c r="D38" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="43"/>
+      <c r="E38" s="69"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12">
         <f>SUM(G32:G37)</f>
@@ -5538,72 +5546,72 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="27"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="27" t="s">
+      <c r="H42" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="28" t="s">
+      <c r="H45" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
-      <c r="B46" s="39"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="23" t="s">
+      <c r="H46" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -5631,16 +5639,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="H20:J20"/>
@@ -5653,24 +5669,16 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="H43:J44"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5695,64 +5703,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="18"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5763,8 +5771,8 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="17"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -5775,8 +5783,8 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
       <c r="G7" s="17"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -5787,8 +5795,8 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
       <c r="G8" s="17"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -5799,8 +5807,8 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="17"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -5811,8 +5819,8 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="17"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -5823,8 +5831,8 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
       <c r="G11" s="17"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -5834,8 +5842,8 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="6"/>
@@ -5879,52 +5887,52 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -5934,9 +5942,9 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -6023,60 +6031,60 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
     </row>
     <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
     </row>
     <row r="32" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -6087,10 +6095,10 @@
       <c r="D32" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="37" t="s">
+      <c r="E32" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="37"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="20" t="s">
         <v>5</v>
       </c>
@@ -6105,10 +6113,10 @@
       <c r="D33" s="19">
         <v>1000</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="39">
         <v>30</v>
       </c>
-      <c r="F33" s="29"/>
+      <c r="F33" s="39"/>
       <c r="G33" s="19">
         <f t="shared" ref="G33:G38" si="0">SUM(D33*E33)</f>
         <v>30000</v>
@@ -6124,10 +6132,10 @@
       <c r="D34" s="19">
         <v>500</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="39">
         <v>35</v>
       </c>
-      <c r="F34" s="29"/>
+      <c r="F34" s="39"/>
       <c r="G34" s="19">
         <f t="shared" si="0"/>
         <v>17500</v>
@@ -6143,10 +6151,10 @@
       <c r="D35" s="19">
         <v>100</v>
       </c>
-      <c r="E35" s="29">
+      <c r="E35" s="39">
         <v>425</v>
       </c>
-      <c r="F35" s="29"/>
+      <c r="F35" s="39"/>
       <c r="G35" s="19">
         <f t="shared" si="0"/>
         <v>42500</v>
@@ -6162,8 +6170,8 @@
       <c r="D36" s="19">
         <v>50</v>
       </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
       <c r="G36" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6179,8 +6187,8 @@
       <c r="D37" s="19">
         <v>20</v>
       </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
       <c r="G37" s="19">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -6196,10 +6204,10 @@
       <c r="D38" s="19">
         <v>10</v>
       </c>
-      <c r="E38" s="41">
+      <c r="E38" s="67">
         <v>100</v>
       </c>
-      <c r="F38" s="41"/>
+      <c r="F38" s="67"/>
       <c r="G38" s="19">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -6212,10 +6220,10 @@
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="44" t="s">
+      <c r="D39" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="45"/>
+      <c r="E39" s="72"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20">
         <f>SUM(G33:G38)</f>
@@ -6262,58 +6270,58 @@
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="27"/>
+      <c r="B43" s="48"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="27" t="s">
+      <c r="H43" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="28" t="s">
+      <c r="H46" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -6323,12 +6331,38 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -6341,32 +6375,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6392,177 +6400,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="55">
+      <c r="A5" s="81">
         <v>1</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="46">
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="80">
         <v>1650</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="46"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="80"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="55">
+      <c r="A7" s="81">
         <v>2</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="46">
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="80">
         <v>1980</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="46"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="80"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="55">
+      <c r="A9" s="81">
         <v>3</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="46">
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="80">
         <v>10538</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="46"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="80"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="55">
+      <c r="A11" s="81">
         <v>4</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="46">
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="80">
         <v>1100</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="46"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="80"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="46">
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="80">
         <f>SUM(G5:G12)</f>
         <v>15268</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="46"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="80"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
     </row>
     <row r="25" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -6573,10 +6581,10 @@
       <c r="D25" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="37"/>
+      <c r="F25" s="68"/>
       <c r="G25" s="20" t="s">
         <v>5</v>
       </c>
@@ -6591,8 +6599,8 @@
       <c r="D26" s="19">
         <v>1000</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
       <c r="G26" s="19">
         <f t="shared" ref="G26:G31" si="0">SUM(D26*E26)</f>
         <v>0</v>
@@ -6608,10 +6616,10 @@
       <c r="D27" s="19">
         <v>500</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="39">
         <v>30</v>
       </c>
-      <c r="F27" s="29"/>
+      <c r="F27" s="39"/>
       <c r="G27" s="19">
         <f t="shared" si="0"/>
         <v>15000</v>
@@ -6627,8 +6635,8 @@
       <c r="D28" s="19">
         <v>100</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
       <c r="G28" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6644,10 +6652,10 @@
       <c r="D29" s="19">
         <v>50</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="39">
         <v>5</v>
       </c>
-      <c r="F29" s="29"/>
+      <c r="F29" s="39"/>
       <c r="G29" s="19">
         <f t="shared" si="0"/>
         <v>250</v>
@@ -6663,8 +6671,8 @@
       <c r="D30" s="19">
         <v>20</v>
       </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
       <c r="G30" s="19">
         <f>SUM(D30*E30)</f>
         <v>0</v>
@@ -6680,10 +6688,10 @@
       <c r="D31" s="19">
         <v>10</v>
       </c>
-      <c r="E31" s="41">
+      <c r="E31" s="67">
         <v>2</v>
       </c>
-      <c r="F31" s="41"/>
+      <c r="F31" s="67"/>
       <c r="G31" s="19">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6696,10 +6704,10 @@
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="45"/>
+      <c r="E32" s="72"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20">
         <f>SUM(G26:G31)</f>
@@ -6746,58 +6754,58 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="27"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="27" t="s">
+      <c r="H36" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="28" t="s">
+      <c r="H39" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
@@ -6807,12 +6815,29 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="H37:J38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A13:F14"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A23:J23"/>
@@ -6829,23 +6854,6 @@
     <mergeCell ref="B5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="B7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A13:F14"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="H37:J38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="H39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="portrait" r:id="rId1"/>

--- a/Others/Cash A.xlsx
+++ b/Others/Cash A.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEEAD9D-B0F6-4FA7-9922-64DC4C4A7D43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483F17DC-F850-481B-8E43-D7F58E33A45E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="31">
   <si>
     <t>Tulip-2</t>
   </si>
@@ -123,13 +123,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Date: 09.11.19</t>
-  </si>
-  <si>
-    <t>Jakir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    n</t>
+    <t>Date: 21.11.19</t>
   </si>
 </sst>
 </file>
@@ -508,47 +502,68 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -560,38 +575,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -605,15 +602,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -621,6 +615,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -642,12 +642,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2574,60 +2568,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
@@ -2636,10 +2630,10 @@
       <c r="D5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="35"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="14" t="s">
         <v>5</v>
       </c>
@@ -2654,10 +2648,10 @@
       <c r="D6" s="13">
         <v>1000</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="41">
         <v>50</v>
       </c>
-      <c r="F6" s="39"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="13">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>50000</v>
@@ -2673,10 +2667,10 @@
       <c r="D7" s="13">
         <v>500</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="41">
         <v>16</v>
       </c>
-      <c r="F7" s="39"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="13">
         <f t="shared" si="0"/>
         <v>8000</v>
@@ -2692,10 +2686,10 @@
       <c r="D8" s="13">
         <v>100</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="41">
         <v>151</v>
       </c>
-      <c r="F8" s="39"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="13">
         <f t="shared" si="0"/>
         <v>15100</v>
@@ -2711,10 +2705,10 @@
       <c r="D9" s="13">
         <v>50</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="41">
         <v>58</v>
       </c>
-      <c r="F9" s="39"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="13">
         <f t="shared" si="0"/>
         <v>2900</v>
@@ -2730,8 +2724,8 @@
       <c r="D10" s="13">
         <v>20</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2747,8 +2741,8 @@
       <c r="D11" s="13">
         <v>10</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2761,10 +2755,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="35"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14">
         <f>SUM(G6:G11)</f>
@@ -2811,58 +2805,58 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="40"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -2872,11 +2866,11 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -2951,60 +2945,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -3013,10 +3007,10 @@
       <c r="D31" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="35"/>
+      <c r="F31" s="46"/>
       <c r="G31" s="15" t="s">
         <v>5</v>
       </c>
@@ -3031,10 +3025,10 @@
       <c r="D32" s="16">
         <v>1000</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="41">
         <v>50</v>
       </c>
-      <c r="F32" s="39"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="16">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>50000</v>
@@ -3050,10 +3044,10 @@
       <c r="D33" s="16">
         <v>500</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="41">
         <v>116</v>
       </c>
-      <c r="F33" s="39"/>
+      <c r="F33" s="41"/>
       <c r="G33" s="16">
         <f t="shared" si="1"/>
         <v>58000</v>
@@ -3069,10 +3063,10 @@
       <c r="D34" s="16">
         <v>100</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E34" s="41">
         <v>151</v>
       </c>
-      <c r="F34" s="39"/>
+      <c r="F34" s="41"/>
       <c r="G34" s="16">
         <f t="shared" si="1"/>
         <v>15100</v>
@@ -3088,10 +3082,10 @@
       <c r="D35" s="16">
         <v>50</v>
       </c>
-      <c r="E35" s="39">
+      <c r="E35" s="41">
         <v>58</v>
       </c>
-      <c r="F35" s="39"/>
+      <c r="F35" s="41"/>
       <c r="G35" s="16">
         <f t="shared" si="1"/>
         <v>2900</v>
@@ -3107,8 +3101,8 @@
       <c r="D36" s="16">
         <v>20</v>
       </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
       <c r="G36" s="16">
         <f>SUM(D36*E36)</f>
         <v>0</v>
@@ -3124,8 +3118,8 @@
       <c r="D37" s="16">
         <v>10</v>
       </c>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
       <c r="G37" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3138,10 +3132,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="46" t="s">
+      <c r="D38" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="47"/>
+      <c r="E38" s="38"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15">
         <f>SUM(G32:G37)</f>
@@ -3188,58 +3182,58 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="48"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="48" t="s">
+      <c r="H42" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
-      <c r="B43" s="41"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="41" t="s">
+      <c r="H45" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
@@ -3249,11 +3243,11 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="43" t="s">
+      <c r="H46" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -3281,14 +3275,24 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="H43:J44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="A27:J27"/>
@@ -3301,24 +3305,14 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:J45"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.25" footer="0"/>
   <pageSetup scale="85" orientation="portrait" r:id="rId1"/>
@@ -3328,10 +3322,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3348,77 +3342,77 @@
     <col min="10" max="10" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+    <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
       <c r="D5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="59"/>
+      <c r="F5" s="52"/>
       <c r="G5" s="24" t="s">
         <v>5</v>
       </c>
@@ -3426,75 +3420,72 @@
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
     </row>
-    <row r="6" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
       <c r="D6" s="25">
         <v>1000</v>
       </c>
-      <c r="E6" s="60">
-        <v>110</v>
-      </c>
-      <c r="F6" s="60"/>
+      <c r="E6" s="53">
+        <v>92</v>
+      </c>
+      <c r="F6" s="53"/>
       <c r="G6" s="25">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
-        <v>110000</v>
+        <v>92000</v>
       </c>
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="L6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
       <c r="D7" s="25">
         <v>500</v>
       </c>
-      <c r="E7" s="60">
-        <v>200</v>
-      </c>
-      <c r="F7" s="60"/>
+      <c r="E7" s="53">
+        <v>163</v>
+      </c>
+      <c r="F7" s="53"/>
       <c r="G7" s="25">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>81500</v>
       </c>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
     </row>
-    <row r="8" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="25">
         <v>100</v>
       </c>
-      <c r="E8" s="60">
-        <v>300</v>
-      </c>
-      <c r="F8" s="60"/>
+      <c r="E8" s="53">
+        <v>265</v>
+      </c>
+      <c r="F8" s="53"/>
       <c r="G8" s="25">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>26500</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
     </row>
-    <row r="9" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="25">
         <v>50</v>
       </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3503,15 +3494,15 @@
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
     </row>
-    <row r="10" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="25">
         <v>20</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3520,15 +3511,15 @@
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
     </row>
-    <row r="11" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="25">
         <v>10</v>
       </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3537,24 +3528,24 @@
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
     </row>
-    <row r="12" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="60"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="25"/>
       <c r="G12" s="21">
         <f>SUM(G6:G11)</f>
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -3566,7 +3557,7 @@
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -3578,7 +3569,7 @@
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -3590,7 +3581,7 @@
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="27"/>
@@ -3600,35 +3591,35 @@
       <c r="E16" s="26"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
-      <c r="H16" s="53" t="s">
+      <c r="H16" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="53"/>
+      <c r="D17" s="54"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="27"/>
-      <c r="D18" s="53"/>
+      <c r="D18" s="54"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
@@ -3640,11 +3631,9 @@
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
@@ -3654,9 +3643,9 @@
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
@@ -3743,63 +3732,63 @@
       <c r="J27" s="23"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
       <c r="K30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
@@ -3808,10 +3797,10 @@
       <c r="D32" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="59" t="s">
+      <c r="E32" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="59"/>
+      <c r="F32" s="52"/>
       <c r="G32" s="24" t="s">
         <v>5</v>
       </c>
@@ -3826,13 +3815,13 @@
       <c r="D33" s="29">
         <v>1000</v>
       </c>
-      <c r="E33" s="60">
-        <v>110</v>
-      </c>
-      <c r="F33" s="60"/>
+      <c r="E33" s="53">
+        <v>92</v>
+      </c>
+      <c r="F33" s="53"/>
       <c r="G33" s="29">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
-        <v>110000</v>
+        <v>92000</v>
       </c>
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
@@ -3845,13 +3834,13 @@
       <c r="D34" s="29">
         <v>500</v>
       </c>
-      <c r="E34" s="60">
-        <v>200</v>
-      </c>
-      <c r="F34" s="60"/>
+      <c r="E34" s="53">
+        <v>163</v>
+      </c>
+      <c r="F34" s="53"/>
       <c r="G34" s="29">
         <f t="shared" si="1"/>
-        <v>100000</v>
+        <v>81500</v>
       </c>
       <c r="H34" s="23"/>
       <c r="I34" s="23"/>
@@ -3864,13 +3853,13 @@
       <c r="D35" s="29">
         <v>100</v>
       </c>
-      <c r="E35" s="60">
-        <v>300</v>
-      </c>
-      <c r="F35" s="60"/>
+      <c r="E35" s="53">
+        <v>265</v>
+      </c>
+      <c r="F35" s="53"/>
       <c r="G35" s="29">
         <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>26500</v>
       </c>
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
@@ -3883,8 +3872,8 @@
       <c r="D36" s="29">
         <v>50</v>
       </c>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
       <c r="G36" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3900,8 +3889,8 @@
       <c r="D37" s="29">
         <v>20</v>
       </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
       <c r="G37" s="29">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -3917,8 +3906,8 @@
       <c r="D38" s="29">
         <v>10</v>
       </c>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
       <c r="G38" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3931,14 +3920,14 @@
       <c r="A39" s="23"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
-      <c r="D39" s="61" t="s">
+      <c r="D39" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="62"/>
+      <c r="E39" s="63"/>
       <c r="F39" s="29"/>
       <c r="G39" s="22">
         <f>SUM(G33:G38)</f>
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
@@ -3990,35 +3979,35 @@
       <c r="E43" s="27"/>
       <c r="F43" s="27"/>
       <c r="G43" s="27"/>
-      <c r="H43" s="53" t="s">
+      <c r="H43" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="23"/>
-      <c r="D44" s="54"/>
+      <c r="D44" s="60"/>
       <c r="E44" s="23"/>
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="23"/>
-      <c r="D45" s="54"/>
+      <c r="D45" s="60"/>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
     </row>
     <row r="46" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="31"/>
@@ -4030,11 +4019,9 @@
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
       <c r="G46" s="32"/>
-      <c r="H46" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="I46" s="55"/>
-      <c r="J46" s="55"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="34"/>
@@ -4044,9 +4031,9 @@
       <c r="E47" s="34"/>
       <c r="F47" s="34"/>
       <c r="G47" s="34"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
@@ -4074,26 +4061,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H43:J43"/>
@@ -4108,6 +4075,26 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
@@ -4138,63 +4125,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4204,10 +4191,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="35"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4222,10 +4209,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="41">
         <v>68</v>
       </c>
-      <c r="F6" s="39"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>68000</v>
@@ -4241,10 +4228,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="41">
         <v>135</v>
       </c>
-      <c r="F7" s="39"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>67500</v>
@@ -4260,10 +4247,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="41">
         <v>53</v>
       </c>
-      <c r="F8" s="39"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>5300</v>
@@ -4279,10 +4266,10 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="41">
         <v>2</v>
       </c>
-      <c r="F9" s="39"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4298,10 +4285,10 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="41">
         <v>5</v>
       </c>
-      <c r="F10" s="39"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4317,8 +4304,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4331,10 +4318,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="35"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -4381,76 +4368,76 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="40"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="41"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="64"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -4525,60 +4512,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
     </row>
     <row r="31" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -4587,10 +4574,10 @@
       <c r="D31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="68" t="s">
+      <c r="E31" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="68"/>
+      <c r="F31" s="64"/>
       <c r="G31" s="9" t="s">
         <v>5</v>
       </c>
@@ -4605,10 +4592,10 @@
       <c r="D32" s="2">
         <v>1000</v>
       </c>
-      <c r="E32" s="67">
+      <c r="E32" s="68">
         <v>68</v>
       </c>
-      <c r="F32" s="67"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="2">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>68000</v>
@@ -4624,10 +4611,10 @@
       <c r="D33" s="2">
         <v>500</v>
       </c>
-      <c r="E33" s="67">
+      <c r="E33" s="68">
         <v>135</v>
       </c>
-      <c r="F33" s="67"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>67500</v>
@@ -4643,10 +4630,10 @@
       <c r="D34" s="2">
         <v>100</v>
       </c>
-      <c r="E34" s="67">
+      <c r="E34" s="68">
         <v>53</v>
       </c>
-      <c r="F34" s="67"/>
+      <c r="F34" s="68"/>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
         <v>5300</v>
@@ -4662,10 +4649,10 @@
       <c r="D35" s="2">
         <v>50</v>
       </c>
-      <c r="E35" s="67">
+      <c r="E35" s="68">
         <v>2</v>
       </c>
-      <c r="F35" s="67"/>
+      <c r="F35" s="68"/>
       <c r="G35" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4681,10 +4668,10 @@
       <c r="D36" s="2">
         <v>20</v>
       </c>
-      <c r="E36" s="67">
+      <c r="E36" s="68">
         <v>5</v>
       </c>
-      <c r="F36" s="67"/>
+      <c r="F36" s="68"/>
       <c r="G36" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4700,8 +4687,8 @@
       <c r="D37" s="2">
         <v>10</v>
       </c>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4714,10 +4701,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="66"/>
+      <c r="E38" s="67"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9">
         <f>SUM(G32:G37)</f>
@@ -4764,76 +4751,76 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="48"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="48" t="s">
+      <c r="H42" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
-      <c r="B43" s="41"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="41"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="41" t="s">
+      <c r="H45" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="65" t="s">
+      <c r="A46" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="65"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="43" t="s">
+      <c r="H46" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -4861,30 +4848,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A46:B46"/>
@@ -4901,6 +4864,30 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4932,63 +4919,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4998,10 +4985,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="35"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -5016,10 +5003,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="41">
         <v>44</v>
       </c>
-      <c r="F6" s="39"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>44000</v>
@@ -5035,10 +5022,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="41">
         <v>118</v>
       </c>
-      <c r="F7" s="39"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>59000</v>
@@ -5054,10 +5041,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="41">
         <v>510</v>
       </c>
-      <c r="F8" s="39"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>51000</v>
@@ -5073,8 +5060,8 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5090,8 +5077,8 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5107,8 +5094,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5121,10 +5108,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="35"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -5171,72 +5158,72 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="40"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
-      <c r="B20" s="70"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -5311,60 +5298,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
     </row>
     <row r="31" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -5373,10 +5360,10 @@
       <c r="D31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="35"/>
+      <c r="F31" s="46"/>
       <c r="G31" s="12" t="s">
         <v>5</v>
       </c>
@@ -5391,10 +5378,10 @@
       <c r="D32" s="11">
         <v>1000</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="41">
         <v>44</v>
       </c>
-      <c r="F32" s="39"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="11">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>44000</v>
@@ -5410,10 +5397,10 @@
       <c r="D33" s="11">
         <v>500</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="41">
         <v>118</v>
       </c>
-      <c r="F33" s="39"/>
+      <c r="F33" s="41"/>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
         <v>59000</v>
@@ -5429,10 +5416,10 @@
       <c r="D34" s="11">
         <v>100</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E34" s="41">
         <v>510</v>
       </c>
-      <c r="F34" s="39"/>
+      <c r="F34" s="41"/>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
         <v>51000</v>
@@ -5448,8 +5435,8 @@
       <c r="D35" s="11">
         <v>50</v>
       </c>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5465,8 +5452,8 @@
       <c r="D36" s="11">
         <v>20</v>
       </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
       <c r="G36" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5482,8 +5469,8 @@
       <c r="D37" s="11">
         <v>10</v>
       </c>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
       <c r="G37" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5496,10 +5483,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="69" t="s">
+      <c r="D38" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="69"/>
+      <c r="E38" s="70"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12">
         <f>SUM(G32:G37)</f>
@@ -5546,72 +5533,72 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="48"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="48" t="s">
+      <c r="H42" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
-      <c r="B43" s="41"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="41" t="s">
+      <c r="H45" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="43" t="s">
+      <c r="H46" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -5639,6 +5626,34 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -5651,34 +5666,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="H43:J44"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5703,64 +5690,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="18"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5771,8 +5758,8 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="17"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -5783,8 +5770,8 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="17"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -5795,8 +5782,8 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="17"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -5807,8 +5794,8 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="17"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -5819,8 +5806,8 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="17"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -5831,8 +5818,8 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="17"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -5842,8 +5829,8 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="6"/>
@@ -5887,52 +5874,52 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -5942,9 +5929,9 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -6031,60 +6018,60 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
     </row>
     <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
     </row>
     <row r="32" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -6095,10 +6082,10 @@
       <c r="D32" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="68" t="s">
+      <c r="E32" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="68"/>
+      <c r="F32" s="64"/>
       <c r="G32" s="20" t="s">
         <v>5</v>
       </c>
@@ -6113,10 +6100,10 @@
       <c r="D33" s="19">
         <v>1000</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="41">
         <v>30</v>
       </c>
-      <c r="F33" s="39"/>
+      <c r="F33" s="41"/>
       <c r="G33" s="19">
         <f t="shared" ref="G33:G38" si="0">SUM(D33*E33)</f>
         <v>30000</v>
@@ -6132,10 +6119,10 @@
       <c r="D34" s="19">
         <v>500</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E34" s="41">
         <v>35</v>
       </c>
-      <c r="F34" s="39"/>
+      <c r="F34" s="41"/>
       <c r="G34" s="19">
         <f t="shared" si="0"/>
         <v>17500</v>
@@ -6151,10 +6138,10 @@
       <c r="D35" s="19">
         <v>100</v>
       </c>
-      <c r="E35" s="39">
+      <c r="E35" s="41">
         <v>425</v>
       </c>
-      <c r="F35" s="39"/>
+      <c r="F35" s="41"/>
       <c r="G35" s="19">
         <f t="shared" si="0"/>
         <v>42500</v>
@@ -6170,8 +6157,8 @@
       <c r="D36" s="19">
         <v>50</v>
       </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
       <c r="G36" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6187,8 +6174,8 @@
       <c r="D37" s="19">
         <v>20</v>
       </c>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="19">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -6204,10 +6191,10 @@
       <c r="D38" s="19">
         <v>10</v>
       </c>
-      <c r="E38" s="67">
+      <c r="E38" s="68">
         <v>100</v>
       </c>
-      <c r="F38" s="67"/>
+      <c r="F38" s="68"/>
       <c r="G38" s="19">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -6270,58 +6257,58 @@
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="48"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="48" t="s">
+      <c r="H43" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="41" t="s">
+      <c r="H46" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -6331,20 +6318,30 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="A28:J28"/>
@@ -6357,24 +6354,14 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6400,177 +6387,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="81">
+      <c r="A5" s="82">
         <v>1</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="80">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="73">
         <v>1650</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="80"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="81">
+      <c r="A7" s="82">
         <v>2</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="80">
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="73">
         <v>1980</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="80"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="81">
+      <c r="A9" s="82">
         <v>3</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="80">
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="73">
         <v>10538</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="80"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="81">
+      <c r="A11" s="82">
         <v>4</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="80">
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="73">
         <v>1100</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="80"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="73"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="80">
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="73">
         <f>SUM(G5:G12)</f>
         <v>15268</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="80"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="73"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
     </row>
     <row r="25" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -6581,10 +6568,10 @@
       <c r="D25" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="68" t="s">
+      <c r="E25" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="68"/>
+      <c r="F25" s="64"/>
       <c r="G25" s="20" t="s">
         <v>5</v>
       </c>
@@ -6599,8 +6586,8 @@
       <c r="D26" s="19">
         <v>1000</v>
       </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
       <c r="G26" s="19">
         <f t="shared" ref="G26:G31" si="0">SUM(D26*E26)</f>
         <v>0</v>
@@ -6616,10 +6603,10 @@
       <c r="D27" s="19">
         <v>500</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="41">
         <v>30</v>
       </c>
-      <c r="F27" s="39"/>
+      <c r="F27" s="41"/>
       <c r="G27" s="19">
         <f t="shared" si="0"/>
         <v>15000</v>
@@ -6635,8 +6622,8 @@
       <c r="D28" s="19">
         <v>100</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
       <c r="G28" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6652,10 +6639,10 @@
       <c r="D29" s="19">
         <v>50</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="41">
         <v>5</v>
       </c>
-      <c r="F29" s="39"/>
+      <c r="F29" s="41"/>
       <c r="G29" s="19">
         <f t="shared" si="0"/>
         <v>250</v>
@@ -6671,8 +6658,8 @@
       <c r="D30" s="19">
         <v>20</v>
       </c>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
       <c r="G30" s="19">
         <f>SUM(D30*E30)</f>
         <v>0</v>
@@ -6688,10 +6675,10 @@
       <c r="D31" s="19">
         <v>10</v>
       </c>
-      <c r="E31" s="67">
+      <c r="E31" s="68">
         <v>2</v>
       </c>
-      <c r="F31" s="67"/>
+      <c r="F31" s="68"/>
       <c r="G31" s="19">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6754,58 +6741,58 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="48"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="48" t="s">
+      <c r="H36" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="41" t="s">
+      <c r="H39" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
@@ -6815,29 +6802,12 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="H37:J38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A13:F14"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A23:J23"/>
@@ -6854,6 +6824,23 @@
     <mergeCell ref="B5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="B7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A13:F14"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="H37:J38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="H39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="portrait" r:id="rId1"/>

--- a/Others/Cash A.xlsx
+++ b/Others/Cash A.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483F17DC-F850-481B-8E43-D7F58E33A45E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F55F89-09DD-49D7-9465-3FC8E6B9E781}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="32">
   <si>
     <t>Tulip-2</t>
   </si>
@@ -123,7 +123,10 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Date: 21.11.19</t>
+    <t>Date: 12.12.19</t>
+  </si>
+  <si>
+    <t>Jafor</t>
   </si>
 </sst>
 </file>
@@ -502,12 +505,39 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -517,32 +547,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -559,55 +581,36 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -615,12 +618,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -642,6 +639,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2568,60 +2571,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
@@ -2630,10 +2633,10 @@
       <c r="D5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="46"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="14" t="s">
         <v>5</v>
       </c>
@@ -2648,10 +2651,10 @@
       <c r="D6" s="13">
         <v>1000</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="39">
         <v>50</v>
       </c>
-      <c r="F6" s="41"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="13">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>50000</v>
@@ -2667,10 +2670,10 @@
       <c r="D7" s="13">
         <v>500</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="39">
         <v>16</v>
       </c>
-      <c r="F7" s="41"/>
+      <c r="F7" s="39"/>
       <c r="G7" s="13">
         <f t="shared" si="0"/>
         <v>8000</v>
@@ -2686,10 +2689,10 @@
       <c r="D8" s="13">
         <v>100</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="39">
         <v>151</v>
       </c>
-      <c r="F8" s="41"/>
+      <c r="F8" s="39"/>
       <c r="G8" s="13">
         <f t="shared" si="0"/>
         <v>15100</v>
@@ -2705,10 +2708,10 @@
       <c r="D9" s="13">
         <v>50</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="39">
         <v>58</v>
       </c>
-      <c r="F9" s="41"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="13">
         <f t="shared" si="0"/>
         <v>2900</v>
@@ -2724,8 +2727,8 @@
       <c r="D10" s="13">
         <v>20</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2741,8 +2744,8 @@
       <c r="D11" s="13">
         <v>10</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
       <c r="G11" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2755,10 +2758,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="46"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14">
         <f>SUM(G6:G11)</f>
@@ -2805,58 +2808,58 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="47"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="48" t="s">
+      <c r="H19" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -2866,11 +2869,11 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -2945,60 +2948,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -3007,10 +3010,10 @@
       <c r="D31" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="46" t="s">
+      <c r="E31" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="46"/>
+      <c r="F31" s="35"/>
       <c r="G31" s="15" t="s">
         <v>5</v>
       </c>
@@ -3025,10 +3028,10 @@
       <c r="D32" s="16">
         <v>1000</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="39">
         <v>50</v>
       </c>
-      <c r="F32" s="41"/>
+      <c r="F32" s="39"/>
       <c r="G32" s="16">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>50000</v>
@@ -3044,10 +3047,10 @@
       <c r="D33" s="16">
         <v>500</v>
       </c>
-      <c r="E33" s="41">
+      <c r="E33" s="39">
         <v>116</v>
       </c>
-      <c r="F33" s="41"/>
+      <c r="F33" s="39"/>
       <c r="G33" s="16">
         <f t="shared" si="1"/>
         <v>58000</v>
@@ -3063,10 +3066,10 @@
       <c r="D34" s="16">
         <v>100</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="39">
         <v>151</v>
       </c>
-      <c r="F34" s="41"/>
+      <c r="F34" s="39"/>
       <c r="G34" s="16">
         <f t="shared" si="1"/>
         <v>15100</v>
@@ -3082,10 +3085,10 @@
       <c r="D35" s="16">
         <v>50</v>
       </c>
-      <c r="E35" s="41">
+      <c r="E35" s="39">
         <v>58</v>
       </c>
-      <c r="F35" s="41"/>
+      <c r="F35" s="39"/>
       <c r="G35" s="16">
         <f t="shared" si="1"/>
         <v>2900</v>
@@ -3101,8 +3104,8 @@
       <c r="D36" s="16">
         <v>20</v>
       </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
       <c r="G36" s="16">
         <f>SUM(D36*E36)</f>
         <v>0</v>
@@ -3118,8 +3121,8 @@
       <c r="D37" s="16">
         <v>10</v>
       </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
       <c r="G37" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3132,10 +3135,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="38"/>
+      <c r="E38" s="47"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15">
         <f>SUM(G32:G37)</f>
@@ -3182,58 +3185,58 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="39"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="39" t="s">
+      <c r="H42" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="40"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="40"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
-      <c r="B45" s="40"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="40" t="s">
+      <c r="H45" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
@@ -3243,11 +3246,11 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="35" t="s">
+      <c r="H46" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -3275,6 +3278,32 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -3287,32 +3316,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="H43:J44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:J45"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.25" footer="0"/>
   <pageSetup scale="85" orientation="portrait" r:id="rId1"/>
@@ -3325,7 +3328,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3343,63 +3346,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3409,10 +3412,10 @@
       <c r="D5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="52"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="24" t="s">
         <v>5</v>
       </c>
@@ -3427,13 +3430,13 @@
       <c r="D6" s="25">
         <v>1000</v>
       </c>
-      <c r="E6" s="53">
-        <v>92</v>
-      </c>
-      <c r="F6" s="53"/>
+      <c r="E6" s="60">
+        <v>100</v>
+      </c>
+      <c r="F6" s="60"/>
       <c r="G6" s="25">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
-        <v>92000</v>
+        <v>100000</v>
       </c>
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
@@ -3446,13 +3449,13 @@
       <c r="D7" s="25">
         <v>500</v>
       </c>
-      <c r="E7" s="53">
-        <v>163</v>
-      </c>
-      <c r="F7" s="53"/>
+      <c r="E7" s="60">
+        <v>440</v>
+      </c>
+      <c r="F7" s="60"/>
       <c r="G7" s="25">
         <f t="shared" si="0"/>
-        <v>81500</v>
+        <v>220000</v>
       </c>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
@@ -3465,13 +3468,13 @@
       <c r="D8" s="25">
         <v>100</v>
       </c>
-      <c r="E8" s="53">
-        <v>265</v>
-      </c>
-      <c r="F8" s="53"/>
+      <c r="E8" s="60">
+        <v>300</v>
+      </c>
+      <c r="F8" s="60"/>
       <c r="G8" s="25">
         <f t="shared" si="0"/>
-        <v>26500</v>
+        <v>30000</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
@@ -3484,8 +3487,8 @@
       <c r="D9" s="25">
         <v>50</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3501,8 +3504,8 @@
       <c r="D10" s="25">
         <v>20</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
       <c r="G10" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3518,8 +3521,8 @@
       <c r="D11" s="25">
         <v>10</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
       <c r="G11" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3532,14 +3535,14 @@
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="53"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="25"/>
       <c r="G12" s="21">
         <f>SUM(G6:G11)</f>
-        <v>200000</v>
+        <v>350000</v>
       </c>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
@@ -3591,35 +3594,35 @@
       <c r="E16" s="26"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
-      <c r="H16" s="54" t="s">
+      <c r="H16" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="54"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="27"/>
-      <c r="D18" s="54"/>
+      <c r="D18" s="53"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
@@ -3631,9 +3634,11 @@
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
+      <c r="H19" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
@@ -3643,9 +3648,9 @@
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
@@ -3732,63 +3737,63 @@
       <c r="J27" s="23"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
       <c r="K30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
@@ -3797,10 +3802,10 @@
       <c r="D32" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="52" t="s">
+      <c r="E32" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="52"/>
+      <c r="F32" s="59"/>
       <c r="G32" s="24" t="s">
         <v>5</v>
       </c>
@@ -3815,13 +3820,13 @@
       <c r="D33" s="29">
         <v>1000</v>
       </c>
-      <c r="E33" s="53">
-        <v>92</v>
-      </c>
-      <c r="F33" s="53"/>
+      <c r="E33" s="60">
+        <v>100</v>
+      </c>
+      <c r="F33" s="60"/>
       <c r="G33" s="29">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
-        <v>92000</v>
+        <v>100000</v>
       </c>
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
@@ -3834,13 +3839,13 @@
       <c r="D34" s="29">
         <v>500</v>
       </c>
-      <c r="E34" s="53">
-        <v>163</v>
-      </c>
-      <c r="F34" s="53"/>
+      <c r="E34" s="60">
+        <v>440</v>
+      </c>
+      <c r="F34" s="60"/>
       <c r="G34" s="29">
         <f t="shared" si="1"/>
-        <v>81500</v>
+        <v>220000</v>
       </c>
       <c r="H34" s="23"/>
       <c r="I34" s="23"/>
@@ -3853,13 +3858,13 @@
       <c r="D35" s="29">
         <v>100</v>
       </c>
-      <c r="E35" s="53">
-        <v>265</v>
-      </c>
-      <c r="F35" s="53"/>
+      <c r="E35" s="60">
+        <v>300</v>
+      </c>
+      <c r="F35" s="60"/>
       <c r="G35" s="29">
         <f t="shared" si="1"/>
-        <v>26500</v>
+        <v>30000</v>
       </c>
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
@@ -3872,8 +3877,8 @@
       <c r="D36" s="29">
         <v>50</v>
       </c>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
       <c r="G36" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3889,8 +3894,8 @@
       <c r="D37" s="29">
         <v>20</v>
       </c>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
       <c r="G37" s="29">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -3906,8 +3911,8 @@
       <c r="D38" s="29">
         <v>10</v>
       </c>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
       <c r="G38" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3920,14 +3925,14 @@
       <c r="A39" s="23"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
-      <c r="D39" s="62" t="s">
+      <c r="D39" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="63"/>
+      <c r="E39" s="62"/>
       <c r="F39" s="29"/>
       <c r="G39" s="22">
         <f>SUM(G33:G38)</f>
-        <v>200000</v>
+        <v>350000</v>
       </c>
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
@@ -3979,35 +3984,35 @@
       <c r="E43" s="27"/>
       <c r="F43" s="27"/>
       <c r="G43" s="27"/>
-      <c r="H43" s="54" t="s">
+      <c r="H43" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="23"/>
-      <c r="D44" s="60"/>
+      <c r="D44" s="54"/>
       <c r="E44" s="23"/>
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="23"/>
-      <c r="D45" s="60"/>
+      <c r="D45" s="54"/>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
     </row>
     <row r="46" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="31"/>
@@ -4019,9 +4024,11 @@
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
       <c r="G46" s="32"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61"/>
-      <c r="J46" s="61"/>
+      <c r="H46" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="34"/>
@@ -4031,9 +4038,9 @@
       <c r="E47" s="34"/>
       <c r="F47" s="34"/>
       <c r="G47" s="34"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="57"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
@@ -4061,6 +4068,26 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H43:J43"/>
@@ -4075,26 +4102,6 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
@@ -4125,63 +4132,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4191,10 +4198,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="46"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4209,10 +4216,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="39">
         <v>68</v>
       </c>
-      <c r="F6" s="41"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>68000</v>
@@ -4228,10 +4235,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="39">
         <v>135</v>
       </c>
-      <c r="F7" s="41"/>
+      <c r="F7" s="39"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>67500</v>
@@ -4247,10 +4254,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="39">
         <v>53</v>
       </c>
-      <c r="F8" s="41"/>
+      <c r="F8" s="39"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>5300</v>
@@ -4266,10 +4273,10 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="39">
         <v>2</v>
       </c>
-      <c r="F9" s="41"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4285,10 +4292,10 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="39">
         <v>5</v>
       </c>
-      <c r="F10" s="41"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4304,8 +4311,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4318,10 +4325,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="46"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -4368,76 +4375,76 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="47"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="40"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="48" t="s">
+      <c r="H19" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="65"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -4512,60 +4519,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
     </row>
     <row r="31" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -4574,10 +4581,10 @@
       <c r="D31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="64" t="s">
+      <c r="E31" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="64"/>
+      <c r="F31" s="68"/>
       <c r="G31" s="9" t="s">
         <v>5</v>
       </c>
@@ -4592,10 +4599,10 @@
       <c r="D32" s="2">
         <v>1000</v>
       </c>
-      <c r="E32" s="68">
+      <c r="E32" s="67">
         <v>68</v>
       </c>
-      <c r="F32" s="68"/>
+      <c r="F32" s="67"/>
       <c r="G32" s="2">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>68000</v>
@@ -4611,10 +4618,10 @@
       <c r="D33" s="2">
         <v>500</v>
       </c>
-      <c r="E33" s="68">
+      <c r="E33" s="67">
         <v>135</v>
       </c>
-      <c r="F33" s="68"/>
+      <c r="F33" s="67"/>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>67500</v>
@@ -4630,10 +4637,10 @@
       <c r="D34" s="2">
         <v>100</v>
       </c>
-      <c r="E34" s="68">
+      <c r="E34" s="67">
         <v>53</v>
       </c>
-      <c r="F34" s="68"/>
+      <c r="F34" s="67"/>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
         <v>5300</v>
@@ -4649,10 +4656,10 @@
       <c r="D35" s="2">
         <v>50</v>
       </c>
-      <c r="E35" s="68">
+      <c r="E35" s="67">
         <v>2</v>
       </c>
-      <c r="F35" s="68"/>
+      <c r="F35" s="67"/>
       <c r="G35" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4668,10 +4675,10 @@
       <c r="D36" s="2">
         <v>20</v>
       </c>
-      <c r="E36" s="68">
+      <c r="E36" s="67">
         <v>5</v>
       </c>
-      <c r="F36" s="68"/>
+      <c r="F36" s="67"/>
       <c r="G36" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4687,8 +4694,8 @@
       <c r="D37" s="2">
         <v>10</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4701,10 +4708,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="67" t="s">
+      <c r="D38" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="67"/>
+      <c r="E38" s="66"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9">
         <f>SUM(G32:G37)</f>
@@ -4751,76 +4758,76 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="39"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="39" t="s">
+      <c r="H42" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="40"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="40"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="40"/>
+      <c r="B45" s="41"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="40" t="s">
+      <c r="H45" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="66" t="s">
+      <c r="A46" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="66"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="35" t="s">
+      <c r="H46" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -4848,6 +4855,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A46:B46"/>
@@ -4864,30 +4895,6 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4919,63 +4926,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4985,10 +4992,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="46"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -5003,10 +5010,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="39">
         <v>44</v>
       </c>
-      <c r="F6" s="41"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>44000</v>
@@ -5022,10 +5029,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="39">
         <v>118</v>
       </c>
-      <c r="F7" s="41"/>
+      <c r="F7" s="39"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>59000</v>
@@ -5041,10 +5048,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="39">
         <v>510</v>
       </c>
-      <c r="F8" s="41"/>
+      <c r="F8" s="39"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>51000</v>
@@ -5060,8 +5067,8 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5077,8 +5084,8 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5094,8 +5101,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5108,10 +5115,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="46"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -5158,72 +5165,72 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="47"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="48" t="s">
+      <c r="H19" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
-      <c r="B20" s="69"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -5298,60 +5305,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
     </row>
     <row r="31" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -5360,10 +5367,10 @@
       <c r="D31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="46" t="s">
+      <c r="E31" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="46"/>
+      <c r="F31" s="35"/>
       <c r="G31" s="12" t="s">
         <v>5</v>
       </c>
@@ -5378,10 +5385,10 @@
       <c r="D32" s="11">
         <v>1000</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="39">
         <v>44</v>
       </c>
-      <c r="F32" s="41"/>
+      <c r="F32" s="39"/>
       <c r="G32" s="11">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>44000</v>
@@ -5397,10 +5404,10 @@
       <c r="D33" s="11">
         <v>500</v>
       </c>
-      <c r="E33" s="41">
+      <c r="E33" s="39">
         <v>118</v>
       </c>
-      <c r="F33" s="41"/>
+      <c r="F33" s="39"/>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
         <v>59000</v>
@@ -5416,10 +5423,10 @@
       <c r="D34" s="11">
         <v>100</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="39">
         <v>510</v>
       </c>
-      <c r="F34" s="41"/>
+      <c r="F34" s="39"/>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
         <v>51000</v>
@@ -5435,8 +5442,8 @@
       <c r="D35" s="11">
         <v>50</v>
       </c>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5452,8 +5459,8 @@
       <c r="D36" s="11">
         <v>20</v>
       </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
       <c r="G36" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5469,8 +5476,8 @@
       <c r="D37" s="11">
         <v>10</v>
       </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
       <c r="G37" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5483,10 +5490,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="70" t="s">
+      <c r="D38" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="70"/>
+      <c r="E38" s="69"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12">
         <f>SUM(G32:G37)</f>
@@ -5533,72 +5540,72 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="39"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="39" t="s">
+      <c r="H42" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="40"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="40"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
-      <c r="B45" s="40"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="40" t="s">
+      <c r="H45" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="66"/>
-      <c r="B46" s="66"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="35" t="s">
+      <c r="H46" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -5626,16 +5633,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="H20:J20"/>
@@ -5648,24 +5663,16 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="H43:J44"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5690,64 +5697,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="18"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5758,8 +5765,8 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="17"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -5770,8 +5777,8 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
       <c r="G7" s="17"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -5782,8 +5789,8 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
       <c r="G8" s="17"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -5794,8 +5801,8 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="17"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -5806,8 +5813,8 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="17"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -5818,8 +5825,8 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
       <c r="G11" s="17"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -5829,8 +5836,8 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="6"/>
@@ -5874,52 +5881,52 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -5929,9 +5936,9 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -6018,60 +6025,60 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
     </row>
     <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
     </row>
     <row r="32" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -6082,10 +6089,10 @@
       <c r="D32" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="64" t="s">
+      <c r="E32" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="64"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="20" t="s">
         <v>5</v>
       </c>
@@ -6100,10 +6107,10 @@
       <c r="D33" s="19">
         <v>1000</v>
       </c>
-      <c r="E33" s="41">
+      <c r="E33" s="39">
         <v>30</v>
       </c>
-      <c r="F33" s="41"/>
+      <c r="F33" s="39"/>
       <c r="G33" s="19">
         <f t="shared" ref="G33:G38" si="0">SUM(D33*E33)</f>
         <v>30000</v>
@@ -6119,10 +6126,10 @@
       <c r="D34" s="19">
         <v>500</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="39">
         <v>35</v>
       </c>
-      <c r="F34" s="41"/>
+      <c r="F34" s="39"/>
       <c r="G34" s="19">
         <f t="shared" si="0"/>
         <v>17500</v>
@@ -6138,10 +6145,10 @@
       <c r="D35" s="19">
         <v>100</v>
       </c>
-      <c r="E35" s="41">
+      <c r="E35" s="39">
         <v>425</v>
       </c>
-      <c r="F35" s="41"/>
+      <c r="F35" s="39"/>
       <c r="G35" s="19">
         <f t="shared" si="0"/>
         <v>42500</v>
@@ -6157,8 +6164,8 @@
       <c r="D36" s="19">
         <v>50</v>
       </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
       <c r="G36" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6174,8 +6181,8 @@
       <c r="D37" s="19">
         <v>20</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
       <c r="G37" s="19">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -6191,10 +6198,10 @@
       <c r="D38" s="19">
         <v>10</v>
       </c>
-      <c r="E38" s="68">
+      <c r="E38" s="67">
         <v>100</v>
       </c>
-      <c r="F38" s="68"/>
+      <c r="F38" s="67"/>
       <c r="G38" s="19">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -6257,58 +6264,58 @@
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="39"/>
+      <c r="B43" s="48"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="39" t="s">
+      <c r="H43" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="40"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
-      <c r="B45" s="40"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
-      <c r="B46" s="40"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="40" t="s">
+      <c r="H46" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -6318,12 +6325,38 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -6336,32 +6369,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6387,177 +6394,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="82">
+      <c r="A5" s="81">
         <v>1</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="73">
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="80">
         <v>1650</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="73"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="80"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="82">
+      <c r="A7" s="81">
         <v>2</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="73">
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="80">
         <v>1980</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="73"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="80"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="82">
+      <c r="A9" s="81">
         <v>3</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="73">
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="80">
         <v>10538</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="73"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="80"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="82">
+      <c r="A11" s="81">
         <v>4</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="73">
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="80">
         <v>1100</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="73"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="80"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="73">
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="80">
         <f>SUM(G5:G12)</f>
         <v>15268</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="73"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="80"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
     </row>
     <row r="25" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -6568,10 +6575,10 @@
       <c r="D25" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="64" t="s">
+      <c r="E25" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="64"/>
+      <c r="F25" s="68"/>
       <c r="G25" s="20" t="s">
         <v>5</v>
       </c>
@@ -6586,8 +6593,8 @@
       <c r="D26" s="19">
         <v>1000</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
       <c r="G26" s="19">
         <f t="shared" ref="G26:G31" si="0">SUM(D26*E26)</f>
         <v>0</v>
@@ -6603,10 +6610,10 @@
       <c r="D27" s="19">
         <v>500</v>
       </c>
-      <c r="E27" s="41">
+      <c r="E27" s="39">
         <v>30</v>
       </c>
-      <c r="F27" s="41"/>
+      <c r="F27" s="39"/>
       <c r="G27" s="19">
         <f t="shared" si="0"/>
         <v>15000</v>
@@ -6622,8 +6629,8 @@
       <c r="D28" s="19">
         <v>100</v>
       </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
       <c r="G28" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6639,10 +6646,10 @@
       <c r="D29" s="19">
         <v>50</v>
       </c>
-      <c r="E29" s="41">
+      <c r="E29" s="39">
         <v>5</v>
       </c>
-      <c r="F29" s="41"/>
+      <c r="F29" s="39"/>
       <c r="G29" s="19">
         <f t="shared" si="0"/>
         <v>250</v>
@@ -6658,8 +6665,8 @@
       <c r="D30" s="19">
         <v>20</v>
       </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
       <c r="G30" s="19">
         <f>SUM(D30*E30)</f>
         <v>0</v>
@@ -6675,10 +6682,10 @@
       <c r="D31" s="19">
         <v>10</v>
       </c>
-      <c r="E31" s="68">
+      <c r="E31" s="67">
         <v>2</v>
       </c>
-      <c r="F31" s="68"/>
+      <c r="F31" s="67"/>
       <c r="G31" s="19">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6741,58 +6748,58 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="39"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="39" t="s">
+      <c r="H36" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="40"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="40"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="40"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="40" t="s">
+      <c r="H39" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
@@ -6802,12 +6809,29 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="H37:J38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A13:F14"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A23:J23"/>
@@ -6824,23 +6848,6 @@
     <mergeCell ref="B5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="B7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A13:F14"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="H37:J38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="H39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="portrait" r:id="rId1"/>

--- a/Others/Cash A.xlsx
+++ b/Others/Cash A.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F55F89-09DD-49D7-9465-3FC8E6B9E781}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA6ED74-2C4D-4D9A-B6B1-FCEF5B1F97BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,10 +123,10 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Date: 12.12.19</t>
+    <t>Jafor</t>
   </si>
   <si>
-    <t>Jafor</t>
+    <t>Date: 19.12.19</t>
   </si>
 </sst>
 </file>
@@ -505,47 +505,68 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -557,38 +578,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -602,15 +605,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -618,6 +618,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -639,12 +645,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2571,60 +2571,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
@@ -2633,10 +2633,10 @@
       <c r="D5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="35"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="14" t="s">
         <v>5</v>
       </c>
@@ -2651,10 +2651,10 @@
       <c r="D6" s="13">
         <v>1000</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="41">
         <v>50</v>
       </c>
-      <c r="F6" s="39"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="13">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>50000</v>
@@ -2670,10 +2670,10 @@
       <c r="D7" s="13">
         <v>500</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="41">
         <v>16</v>
       </c>
-      <c r="F7" s="39"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="13">
         <f t="shared" si="0"/>
         <v>8000</v>
@@ -2689,10 +2689,10 @@
       <c r="D8" s="13">
         <v>100</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="41">
         <v>151</v>
       </c>
-      <c r="F8" s="39"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="13">
         <f t="shared" si="0"/>
         <v>15100</v>
@@ -2708,10 +2708,10 @@
       <c r="D9" s="13">
         <v>50</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="41">
         <v>58</v>
       </c>
-      <c r="F9" s="39"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="13">
         <f t="shared" si="0"/>
         <v>2900</v>
@@ -2727,8 +2727,8 @@
       <c r="D10" s="13">
         <v>20</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2744,8 +2744,8 @@
       <c r="D11" s="13">
         <v>10</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2758,10 +2758,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="35"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14">
         <f>SUM(G6:G11)</f>
@@ -2808,58 +2808,58 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="40"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -2869,11 +2869,11 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -2948,60 +2948,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -3010,10 +3010,10 @@
       <c r="D31" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="35"/>
+      <c r="F31" s="46"/>
       <c r="G31" s="15" t="s">
         <v>5</v>
       </c>
@@ -3028,10 +3028,10 @@
       <c r="D32" s="16">
         <v>1000</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="41">
         <v>50</v>
       </c>
-      <c r="F32" s="39"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="16">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>50000</v>
@@ -3047,10 +3047,10 @@
       <c r="D33" s="16">
         <v>500</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="41">
         <v>116</v>
       </c>
-      <c r="F33" s="39"/>
+      <c r="F33" s="41"/>
       <c r="G33" s="16">
         <f t="shared" si="1"/>
         <v>58000</v>
@@ -3066,10 +3066,10 @@
       <c r="D34" s="16">
         <v>100</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E34" s="41">
         <v>151</v>
       </c>
-      <c r="F34" s="39"/>
+      <c r="F34" s="41"/>
       <c r="G34" s="16">
         <f t="shared" si="1"/>
         <v>15100</v>
@@ -3085,10 +3085,10 @@
       <c r="D35" s="16">
         <v>50</v>
       </c>
-      <c r="E35" s="39">
+      <c r="E35" s="41">
         <v>58</v>
       </c>
-      <c r="F35" s="39"/>
+      <c r="F35" s="41"/>
       <c r="G35" s="16">
         <f t="shared" si="1"/>
         <v>2900</v>
@@ -3104,8 +3104,8 @@
       <c r="D36" s="16">
         <v>20</v>
       </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
       <c r="G36" s="16">
         <f>SUM(D36*E36)</f>
         <v>0</v>
@@ -3121,8 +3121,8 @@
       <c r="D37" s="16">
         <v>10</v>
       </c>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
       <c r="G37" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3135,10 +3135,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="46" t="s">
+      <c r="D38" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="47"/>
+      <c r="E38" s="38"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15">
         <f>SUM(G32:G37)</f>
@@ -3185,58 +3185,58 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="48"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="48" t="s">
+      <c r="H42" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
-      <c r="B43" s="41"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="41" t="s">
+      <c r="H45" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
@@ -3246,11 +3246,11 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="43" t="s">
+      <c r="H46" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -3278,14 +3278,24 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="H43:J44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="A27:J27"/>
@@ -3298,24 +3308,14 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:J45"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.25" footer="0"/>
   <pageSetup scale="85" orientation="portrait" r:id="rId1"/>
@@ -3328,7 +3328,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="H46" sqref="A1:J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3346,63 +3346,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
+      <c r="A4" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3412,10 +3412,10 @@
       <c r="D5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="59"/>
+      <c r="F5" s="52"/>
       <c r="G5" s="24" t="s">
         <v>5</v>
       </c>
@@ -3430,13 +3430,11 @@
       <c r="D6" s="25">
         <v>1000</v>
       </c>
-      <c r="E6" s="60">
-        <v>100</v>
-      </c>
-      <c r="F6" s="60"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="25">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
@@ -3449,13 +3447,11 @@
       <c r="D7" s="25">
         <v>500</v>
       </c>
-      <c r="E7" s="60">
-        <v>440</v>
-      </c>
-      <c r="F7" s="60"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
       <c r="G7" s="25">
         <f t="shared" si="0"/>
-        <v>220000</v>
+        <v>0</v>
       </c>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
@@ -3468,13 +3464,11 @@
       <c r="D8" s="25">
         <v>100</v>
       </c>
-      <c r="E8" s="60">
-        <v>300</v>
-      </c>
-      <c r="F8" s="60"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="25">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
@@ -3487,8 +3481,8 @@
       <c r="D9" s="25">
         <v>50</v>
       </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3504,8 +3498,8 @@
       <c r="D10" s="25">
         <v>20</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3521,8 +3515,8 @@
       <c r="D11" s="25">
         <v>10</v>
       </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3535,14 +3529,14 @@
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="60"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="25"/>
       <c r="G12" s="21">
         <f>SUM(G6:G11)</f>
-        <v>350000</v>
+        <v>0</v>
       </c>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
@@ -3594,35 +3588,35 @@
       <c r="E16" s="26"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
-      <c r="H16" s="53" t="s">
+      <c r="H16" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="53"/>
+      <c r="D17" s="54"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="27"/>
-      <c r="D18" s="53"/>
+      <c r="D18" s="54"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
@@ -3634,11 +3628,11 @@
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
+      <c r="H19" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
@@ -3648,9 +3642,9 @@
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
@@ -3737,63 +3731,63 @@
       <c r="J27" s="23"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
       <c r="K30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
+      <c r="A31" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
@@ -3802,10 +3796,10 @@
       <c r="D32" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="59" t="s">
+      <c r="E32" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="59"/>
+      <c r="F32" s="52"/>
       <c r="G32" s="24" t="s">
         <v>5</v>
       </c>
@@ -3820,13 +3814,11 @@
       <c r="D33" s="29">
         <v>1000</v>
       </c>
-      <c r="E33" s="60">
-        <v>100</v>
-      </c>
-      <c r="F33" s="60"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
       <c r="G33" s="29">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
@@ -3839,13 +3831,11 @@
       <c r="D34" s="29">
         <v>500</v>
       </c>
-      <c r="E34" s="60">
-        <v>440</v>
-      </c>
-      <c r="F34" s="60"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
       <c r="G34" s="29">
         <f t="shared" si="1"/>
-        <v>220000</v>
+        <v>0</v>
       </c>
       <c r="H34" s="23"/>
       <c r="I34" s="23"/>
@@ -3858,13 +3848,11 @@
       <c r="D35" s="29">
         <v>100</v>
       </c>
-      <c r="E35" s="60">
-        <v>300</v>
-      </c>
-      <c r="F35" s="60"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
       <c r="G35" s="29">
         <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
@@ -3877,8 +3865,8 @@
       <c r="D36" s="29">
         <v>50</v>
       </c>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
       <c r="G36" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3894,8 +3882,8 @@
       <c r="D37" s="29">
         <v>20</v>
       </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
       <c r="G37" s="29">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -3911,8 +3899,8 @@
       <c r="D38" s="29">
         <v>10</v>
       </c>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
       <c r="G38" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3925,14 +3913,14 @@
       <c r="A39" s="23"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
-      <c r="D39" s="61" t="s">
+      <c r="D39" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="62"/>
+      <c r="E39" s="63"/>
       <c r="F39" s="29"/>
       <c r="G39" s="22">
         <f>SUM(G33:G38)</f>
-        <v>350000</v>
+        <v>0</v>
       </c>
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
@@ -3984,35 +3972,35 @@
       <c r="E43" s="27"/>
       <c r="F43" s="27"/>
       <c r="G43" s="27"/>
-      <c r="H43" s="53" t="s">
+      <c r="H43" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="23"/>
-      <c r="D44" s="54"/>
+      <c r="D44" s="60"/>
       <c r="E44" s="23"/>
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="23"/>
-      <c r="D45" s="54"/>
+      <c r="D45" s="60"/>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
     </row>
     <row r="46" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="31"/>
@@ -4024,11 +4012,11 @@
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
       <c r="G46" s="32"/>
-      <c r="H46" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="I46" s="55"/>
-      <c r="J46" s="55"/>
+      <c r="H46" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="34"/>
@@ -4038,9 +4026,9 @@
       <c r="E47" s="34"/>
       <c r="F47" s="34"/>
       <c r="G47" s="34"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
@@ -4068,26 +4056,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H43:J43"/>
@@ -4102,6 +4070,26 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
@@ -4132,63 +4120,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4198,10 +4186,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="35"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4216,10 +4204,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="41">
         <v>68</v>
       </c>
-      <c r="F6" s="39"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>68000</v>
@@ -4235,10 +4223,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="41">
         <v>135</v>
       </c>
-      <c r="F7" s="39"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>67500</v>
@@ -4254,10 +4242,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="41">
         <v>53</v>
       </c>
-      <c r="F8" s="39"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>5300</v>
@@ -4273,10 +4261,10 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="41">
         <v>2</v>
       </c>
-      <c r="F9" s="39"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4292,10 +4280,10 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="41">
         <v>5</v>
       </c>
-      <c r="F10" s="39"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4311,8 +4299,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4325,10 +4313,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="35"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -4375,76 +4363,76 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="40"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="41"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="64"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -4519,60 +4507,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
     </row>
     <row r="31" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -4581,10 +4569,10 @@
       <c r="D31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="68" t="s">
+      <c r="E31" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="68"/>
+      <c r="F31" s="64"/>
       <c r="G31" s="9" t="s">
         <v>5</v>
       </c>
@@ -4599,10 +4587,10 @@
       <c r="D32" s="2">
         <v>1000</v>
       </c>
-      <c r="E32" s="67">
+      <c r="E32" s="68">
         <v>68</v>
       </c>
-      <c r="F32" s="67"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="2">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>68000</v>
@@ -4618,10 +4606,10 @@
       <c r="D33" s="2">
         <v>500</v>
       </c>
-      <c r="E33" s="67">
+      <c r="E33" s="68">
         <v>135</v>
       </c>
-      <c r="F33" s="67"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>67500</v>
@@ -4637,10 +4625,10 @@
       <c r="D34" s="2">
         <v>100</v>
       </c>
-      <c r="E34" s="67">
+      <c r="E34" s="68">
         <v>53</v>
       </c>
-      <c r="F34" s="67"/>
+      <c r="F34" s="68"/>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
         <v>5300</v>
@@ -4656,10 +4644,10 @@
       <c r="D35" s="2">
         <v>50</v>
       </c>
-      <c r="E35" s="67">
+      <c r="E35" s="68">
         <v>2</v>
       </c>
-      <c r="F35" s="67"/>
+      <c r="F35" s="68"/>
       <c r="G35" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4675,10 +4663,10 @@
       <c r="D36" s="2">
         <v>20</v>
       </c>
-      <c r="E36" s="67">
+      <c r="E36" s="68">
         <v>5</v>
       </c>
-      <c r="F36" s="67"/>
+      <c r="F36" s="68"/>
       <c r="G36" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4694,8 +4682,8 @@
       <c r="D37" s="2">
         <v>10</v>
       </c>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4708,10 +4696,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="66"/>
+      <c r="E38" s="67"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9">
         <f>SUM(G32:G37)</f>
@@ -4758,76 +4746,76 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="48"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="48" t="s">
+      <c r="H42" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
-      <c r="B43" s="41"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="41"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="41" t="s">
+      <c r="H45" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="65" t="s">
+      <c r="A46" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="65"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="43" t="s">
+      <c r="H46" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -4855,30 +4843,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A46:B46"/>
@@ -4895,6 +4859,30 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4926,63 +4914,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4992,10 +4980,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="35"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -5010,10 +4998,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="41">
         <v>44</v>
       </c>
-      <c r="F6" s="39"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>44000</v>
@@ -5029,10 +5017,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="41">
         <v>118</v>
       </c>
-      <c r="F7" s="39"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>59000</v>
@@ -5048,10 +5036,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="41">
         <v>510</v>
       </c>
-      <c r="F8" s="39"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>51000</v>
@@ -5067,8 +5055,8 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5084,8 +5072,8 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5101,8 +5089,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5115,10 +5103,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="35"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -5165,72 +5153,72 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="40"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
-      <c r="B20" s="70"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -5305,60 +5293,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
     </row>
     <row r="31" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -5367,10 +5355,10 @@
       <c r="D31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="35"/>
+      <c r="F31" s="46"/>
       <c r="G31" s="12" t="s">
         <v>5</v>
       </c>
@@ -5385,10 +5373,10 @@
       <c r="D32" s="11">
         <v>1000</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="41">
         <v>44</v>
       </c>
-      <c r="F32" s="39"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="11">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>44000</v>
@@ -5404,10 +5392,10 @@
       <c r="D33" s="11">
         <v>500</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="41">
         <v>118</v>
       </c>
-      <c r="F33" s="39"/>
+      <c r="F33" s="41"/>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
         <v>59000</v>
@@ -5423,10 +5411,10 @@
       <c r="D34" s="11">
         <v>100</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E34" s="41">
         <v>510</v>
       </c>
-      <c r="F34" s="39"/>
+      <c r="F34" s="41"/>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
         <v>51000</v>
@@ -5442,8 +5430,8 @@
       <c r="D35" s="11">
         <v>50</v>
       </c>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5459,8 +5447,8 @@
       <c r="D36" s="11">
         <v>20</v>
       </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
       <c r="G36" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5476,8 +5464,8 @@
       <c r="D37" s="11">
         <v>10</v>
       </c>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
       <c r="G37" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5490,10 +5478,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="69" t="s">
+      <c r="D38" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="69"/>
+      <c r="E38" s="70"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12">
         <f>SUM(G32:G37)</f>
@@ -5540,72 +5528,72 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="48"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="48" t="s">
+      <c r="H42" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
-      <c r="B43" s="41"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="41" t="s">
+      <c r="H45" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="43" t="s">
+      <c r="H46" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -5633,6 +5621,34 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -5645,34 +5661,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="H43:J44"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5697,64 +5685,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="18"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5765,8 +5753,8 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="17"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -5777,8 +5765,8 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="17"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -5789,8 +5777,8 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="17"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -5801,8 +5789,8 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="17"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -5813,8 +5801,8 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="17"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -5825,8 +5813,8 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="17"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -5836,8 +5824,8 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="6"/>
@@ -5881,52 +5869,52 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -5936,9 +5924,9 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -6025,60 +6013,60 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
     </row>
     <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
     </row>
     <row r="32" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -6089,10 +6077,10 @@
       <c r="D32" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="68" t="s">
+      <c r="E32" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="68"/>
+      <c r="F32" s="64"/>
       <c r="G32" s="20" t="s">
         <v>5</v>
       </c>
@@ -6107,10 +6095,10 @@
       <c r="D33" s="19">
         <v>1000</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="41">
         <v>30</v>
       </c>
-      <c r="F33" s="39"/>
+      <c r="F33" s="41"/>
       <c r="G33" s="19">
         <f t="shared" ref="G33:G38" si="0">SUM(D33*E33)</f>
         <v>30000</v>
@@ -6126,10 +6114,10 @@
       <c r="D34" s="19">
         <v>500</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E34" s="41">
         <v>35</v>
       </c>
-      <c r="F34" s="39"/>
+      <c r="F34" s="41"/>
       <c r="G34" s="19">
         <f t="shared" si="0"/>
         <v>17500</v>
@@ -6145,10 +6133,10 @@
       <c r="D35" s="19">
         <v>100</v>
       </c>
-      <c r="E35" s="39">
+      <c r="E35" s="41">
         <v>425</v>
       </c>
-      <c r="F35" s="39"/>
+      <c r="F35" s="41"/>
       <c r="G35" s="19">
         <f t="shared" si="0"/>
         <v>42500</v>
@@ -6164,8 +6152,8 @@
       <c r="D36" s="19">
         <v>50</v>
       </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
       <c r="G36" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6181,8 +6169,8 @@
       <c r="D37" s="19">
         <v>20</v>
       </c>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="19">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -6198,10 +6186,10 @@
       <c r="D38" s="19">
         <v>10</v>
       </c>
-      <c r="E38" s="67">
+      <c r="E38" s="68">
         <v>100</v>
       </c>
-      <c r="F38" s="67"/>
+      <c r="F38" s="68"/>
       <c r="G38" s="19">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -6264,58 +6252,58 @@
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="48"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="48" t="s">
+      <c r="H43" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="41" t="s">
+      <c r="H46" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -6325,20 +6313,30 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="A28:J28"/>
@@ -6351,24 +6349,14 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6394,177 +6382,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="81">
+      <c r="A5" s="82">
         <v>1</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="80">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="73">
         <v>1650</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="80"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="81">
+      <c r="A7" s="82">
         <v>2</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="80">
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="73">
         <v>1980</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="80"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="81">
+      <c r="A9" s="82">
         <v>3</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="80">
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="73">
         <v>10538</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="80"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="81">
+      <c r="A11" s="82">
         <v>4</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="80">
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="73">
         <v>1100</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="80"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="73"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="80">
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="73">
         <f>SUM(G5:G12)</f>
         <v>15268</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="80"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="73"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
     </row>
     <row r="25" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -6575,10 +6563,10 @@
       <c r="D25" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="68" t="s">
+      <c r="E25" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="68"/>
+      <c r="F25" s="64"/>
       <c r="G25" s="20" t="s">
         <v>5</v>
       </c>
@@ -6593,8 +6581,8 @@
       <c r="D26" s="19">
         <v>1000</v>
       </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
       <c r="G26" s="19">
         <f t="shared" ref="G26:G31" si="0">SUM(D26*E26)</f>
         <v>0</v>
@@ -6610,10 +6598,10 @@
       <c r="D27" s="19">
         <v>500</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="41">
         <v>30</v>
       </c>
-      <c r="F27" s="39"/>
+      <c r="F27" s="41"/>
       <c r="G27" s="19">
         <f t="shared" si="0"/>
         <v>15000</v>
@@ -6629,8 +6617,8 @@
       <c r="D28" s="19">
         <v>100</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
       <c r="G28" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6646,10 +6634,10 @@
       <c r="D29" s="19">
         <v>50</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="41">
         <v>5</v>
       </c>
-      <c r="F29" s="39"/>
+      <c r="F29" s="41"/>
       <c r="G29" s="19">
         <f t="shared" si="0"/>
         <v>250</v>
@@ -6665,8 +6653,8 @@
       <c r="D30" s="19">
         <v>20</v>
       </c>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
       <c r="G30" s="19">
         <f>SUM(D30*E30)</f>
         <v>0</v>
@@ -6682,10 +6670,10 @@
       <c r="D31" s="19">
         <v>10</v>
       </c>
-      <c r="E31" s="67">
+      <c r="E31" s="68">
         <v>2</v>
       </c>
-      <c r="F31" s="67"/>
+      <c r="F31" s="68"/>
       <c r="G31" s="19">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6748,58 +6736,58 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="48"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="48" t="s">
+      <c r="H36" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="41" t="s">
+      <c r="H39" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
@@ -6809,29 +6797,12 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="H37:J38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A13:F14"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A23:J23"/>
@@ -6848,6 +6819,23 @@
     <mergeCell ref="B5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="B7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A13:F14"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="H37:J38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="H39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="portrait" r:id="rId1"/>

--- a/Others/Cash A.xlsx
+++ b/Others/Cash A.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA6ED74-2C4D-4D9A-B6B1-FCEF5B1F97BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67997160-A620-43A2-B27D-5BD5D2B81671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,17 +123,17 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Jafor</t>
+    <t>Date: 24.12.19</t>
   </si>
   <si>
-    <t>Date: 19.12.19</t>
+    <t>Jafor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,52 +234,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <b/>
       <sz val="15"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -415,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -465,46 +420,19 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -547,49 +475,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -646,6 +537,56 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2571,60 +2512,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
@@ -2633,10 +2574,10 @@
       <c r="D5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="46"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="14" t="s">
         <v>5</v>
       </c>
@@ -2651,10 +2592,10 @@
       <c r="D6" s="13">
         <v>1000</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="32">
         <v>50</v>
       </c>
-      <c r="F6" s="41"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="13">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>50000</v>
@@ -2670,10 +2611,10 @@
       <c r="D7" s="13">
         <v>500</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="32">
         <v>16</v>
       </c>
-      <c r="F7" s="41"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="13">
         <f t="shared" si="0"/>
         <v>8000</v>
@@ -2689,10 +2630,10 @@
       <c r="D8" s="13">
         <v>100</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="32">
         <v>151</v>
       </c>
-      <c r="F8" s="41"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="13">
         <f t="shared" si="0"/>
         <v>15100</v>
@@ -2708,10 +2649,10 @@
       <c r="D9" s="13">
         <v>50</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="32">
         <v>58</v>
       </c>
-      <c r="F9" s="41"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="13">
         <f t="shared" si="0"/>
         <v>2900</v>
@@ -2727,8 +2668,8 @@
       <c r="D10" s="13">
         <v>20</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2744,8 +2685,8 @@
       <c r="D11" s="13">
         <v>10</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2758,10 +2699,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="46"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14">
         <f>SUM(G6:G11)</f>
@@ -2808,58 +2749,58 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="47"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="48" t="s">
+      <c r="H19" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -2869,11 +2810,11 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -2948,60 +2889,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -3010,10 +2951,10 @@
       <c r="D31" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="46" t="s">
+      <c r="E31" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="46"/>
+      <c r="F31" s="37"/>
       <c r="G31" s="15" t="s">
         <v>5</v>
       </c>
@@ -3028,10 +2969,10 @@
       <c r="D32" s="16">
         <v>1000</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="32">
         <v>50</v>
       </c>
-      <c r="F32" s="41"/>
+      <c r="F32" s="32"/>
       <c r="G32" s="16">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>50000</v>
@@ -3047,10 +2988,10 @@
       <c r="D33" s="16">
         <v>500</v>
       </c>
-      <c r="E33" s="41">
+      <c r="E33" s="32">
         <v>116</v>
       </c>
-      <c r="F33" s="41"/>
+      <c r="F33" s="32"/>
       <c r="G33" s="16">
         <f t="shared" si="1"/>
         <v>58000</v>
@@ -3066,10 +3007,10 @@
       <c r="D34" s="16">
         <v>100</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="32">
         <v>151</v>
       </c>
-      <c r="F34" s="41"/>
+      <c r="F34" s="32"/>
       <c r="G34" s="16">
         <f t="shared" si="1"/>
         <v>15100</v>
@@ -3085,10 +3026,10 @@
       <c r="D35" s="16">
         <v>50</v>
       </c>
-      <c r="E35" s="41">
+      <c r="E35" s="32">
         <v>58</v>
       </c>
-      <c r="F35" s="41"/>
+      <c r="F35" s="32"/>
       <c r="G35" s="16">
         <f t="shared" si="1"/>
         <v>2900</v>
@@ -3104,8 +3045,8 @@
       <c r="D36" s="16">
         <v>20</v>
       </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
       <c r="G36" s="16">
         <f>SUM(D36*E36)</f>
         <v>0</v>
@@ -3121,8 +3062,8 @@
       <c r="D37" s="16">
         <v>10</v>
       </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
       <c r="G37" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3135,10 +3076,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="38"/>
+      <c r="E38" s="29"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15">
         <f>SUM(G32:G37)</f>
@@ -3185,58 +3126,58 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="39"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="39" t="s">
+      <c r="H42" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="40"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="40"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
-      <c r="B45" s="40"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="40" t="s">
+      <c r="H45" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
@@ -3246,11 +3187,11 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="35" t="s">
+      <c r="H46" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -3325,98 +3266,99 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H46" sqref="A1:J46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="34.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="29" style="6" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="6" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8" style="6" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="1"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="1"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="1"/>
+      <c r="A4" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="24" t="s">
+      <c r="F5" s="66"/>
+      <c r="G5" s="65" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="23"/>
@@ -3427,14 +3369,16 @@
       <c r="A6" s="23"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
-      <c r="D6" s="25">
+      <c r="D6" s="22">
         <v>1000</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="25">
+      <c r="E6" s="32">
+        <v>140</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="22">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
@@ -3444,14 +3388,16 @@
       <c r="A7" s="23"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
-      <c r="D7" s="25">
+      <c r="D7" s="22">
         <v>500</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="25">
+      <c r="E7" s="32">
+        <v>420</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>210000</v>
       </c>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
@@ -3461,12 +3407,12 @@
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
-      <c r="D8" s="25">
+      <c r="D8" s="22">
         <v>100</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="25">
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3478,12 +3424,12 @@
       <c r="A9" s="23"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
-      <c r="D9" s="25">
+      <c r="D9" s="22">
         <v>50</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="25">
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3495,12 +3441,12 @@
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
-      <c r="D10" s="25">
+      <c r="D10" s="22">
         <v>20</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="25">
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3512,12 +3458,12 @@
       <c r="A11" s="23"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
-      <c r="D11" s="25">
+      <c r="D11" s="22">
         <v>10</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="25">
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3529,14 +3475,14 @@
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="21">
+      <c r="E12" s="32"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22">
         <f>SUM(G6:G11)</f>
-        <v>0</v>
+        <v>350000</v>
       </c>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
@@ -3579,60 +3525,60 @@
       <c r="J15" s="23"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27" t="s">
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="54" t="s">
+      <c r="E16" s="67"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-    </row>
-    <row r="19" spans="1:11" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28" t="s">
+      <c r="A18" s="67"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+    </row>
+    <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
@@ -3642,9 +3588,9 @@
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
@@ -3731,76 +3677,76 @@
       <c r="J27" s="23"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" t="s">
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
+      <c r="A31" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="52" t="s">
+      <c r="E32" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="52"/>
-      <c r="G32" s="24" t="s">
+      <c r="F32" s="66"/>
+      <c r="G32" s="65" t="s">
         <v>5</v>
       </c>
       <c r="H32" s="23"/>
@@ -3811,14 +3757,16 @@
       <c r="A33" s="23"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
-      <c r="D33" s="29">
+      <c r="D33" s="25">
         <v>1000</v>
       </c>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="29">
+      <c r="E33" s="32">
+        <v>140</v>
+      </c>
+      <c r="F33" s="32"/>
+      <c r="G33" s="25">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
@@ -3828,14 +3776,16 @@
       <c r="A34" s="23"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
-      <c r="D34" s="29">
+      <c r="D34" s="25">
         <v>500</v>
       </c>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="29">
+      <c r="E34" s="32">
+        <v>420</v>
+      </c>
+      <c r="F34" s="32"/>
+      <c r="G34" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>210000</v>
       </c>
       <c r="H34" s="23"/>
       <c r="I34" s="23"/>
@@ -3845,12 +3795,12 @@
       <c r="A35" s="23"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
-      <c r="D35" s="29">
+      <c r="D35" s="25">
         <v>100</v>
       </c>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="29">
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3862,12 +3812,12 @@
       <c r="A36" s="23"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
-      <c r="D36" s="29">
+      <c r="D36" s="25">
         <v>50</v>
       </c>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="29">
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3879,12 +3829,12 @@
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
-      <c r="D37" s="29">
+      <c r="D37" s="25">
         <v>20</v>
       </c>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="29">
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="25">
         <f>SUM(D37*E37)</f>
         <v>0</v>
       </c>
@@ -3896,12 +3846,12 @@
       <c r="A38" s="23"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
-      <c r="D38" s="29">
+      <c r="D38" s="25">
         <v>10</v>
       </c>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="29">
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3913,14 +3863,14 @@
       <c r="A39" s="23"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
-      <c r="D39" s="62" t="s">
+      <c r="D39" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="63"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="22">
+      <c r="E39" s="73"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25">
         <f>SUM(G33:G38)</f>
-        <v>0</v>
+        <v>350000</v>
       </c>
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
@@ -3962,97 +3912,73 @@
       <c r="I42" s="23"/>
       <c r="J42" s="23"/>
     </row>
-    <row r="43" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27" t="s">
+    <row r="43" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="67"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="54" t="s">
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="69"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
+      <c r="A44" s="74"/>
+      <c r="B44" s="74"/>
       <c r="C44" s="23"/>
-      <c r="D44" s="60"/>
+      <c r="D44" s="39"/>
       <c r="E44" s="23"/>
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
+      <c r="A45" s="74"/>
+      <c r="B45" s="74"/>
       <c r="C45" s="23"/>
-      <c r="D45" s="60"/>
+      <c r="D45" s="39"/>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
-    </row>
-    <row r="46" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="33" t="s">
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="75"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="I46" s="61"/>
-      <c r="J46" s="61"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" s="78"/>
+      <c r="J46" s="78"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="57"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -4120,63 +4046,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4186,10 +4112,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="46"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4204,10 +4130,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="32">
         <v>68</v>
       </c>
-      <c r="F6" s="41"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>68000</v>
@@ -4223,10 +4149,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="32">
         <v>135</v>
       </c>
-      <c r="F7" s="41"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>67500</v>
@@ -4242,10 +4168,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="32">
         <v>53</v>
       </c>
-      <c r="F8" s="41"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>5300</v>
@@ -4261,10 +4187,10 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="32">
         <v>2</v>
       </c>
-      <c r="F9" s="41"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4280,10 +4206,10 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="32">
         <v>5</v>
       </c>
-      <c r="F10" s="41"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4299,8 +4225,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4313,10 +4239,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="46"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -4363,76 +4289,76 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="47"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="40"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="48" t="s">
+      <c r="H19" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="65"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -4507,60 +4433,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
     </row>
     <row r="31" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -4569,10 +4495,10 @@
       <c r="D31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="64" t="s">
+      <c r="E31" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="64"/>
+      <c r="F31" s="42"/>
       <c r="G31" s="9" t="s">
         <v>5</v>
       </c>
@@ -4587,10 +4513,10 @@
       <c r="D32" s="2">
         <v>1000</v>
       </c>
-      <c r="E32" s="68">
+      <c r="E32" s="46">
         <v>68</v>
       </c>
-      <c r="F32" s="68"/>
+      <c r="F32" s="46"/>
       <c r="G32" s="2">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>68000</v>
@@ -4606,10 +4532,10 @@
       <c r="D33" s="2">
         <v>500</v>
       </c>
-      <c r="E33" s="68">
+      <c r="E33" s="46">
         <v>135</v>
       </c>
-      <c r="F33" s="68"/>
+      <c r="F33" s="46"/>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>67500</v>
@@ -4625,10 +4551,10 @@
       <c r="D34" s="2">
         <v>100</v>
       </c>
-      <c r="E34" s="68">
+      <c r="E34" s="46">
         <v>53</v>
       </c>
-      <c r="F34" s="68"/>
+      <c r="F34" s="46"/>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
         <v>5300</v>
@@ -4644,10 +4570,10 @@
       <c r="D35" s="2">
         <v>50</v>
       </c>
-      <c r="E35" s="68">
+      <c r="E35" s="46">
         <v>2</v>
       </c>
-      <c r="F35" s="68"/>
+      <c r="F35" s="46"/>
       <c r="G35" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4663,10 +4589,10 @@
       <c r="D36" s="2">
         <v>20</v>
       </c>
-      <c r="E36" s="68">
+      <c r="E36" s="46">
         <v>5</v>
       </c>
-      <c r="F36" s="68"/>
+      <c r="F36" s="46"/>
       <c r="G36" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4682,8 +4608,8 @@
       <c r="D37" s="2">
         <v>10</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4696,10 +4622,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="67" t="s">
+      <c r="D38" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="67"/>
+      <c r="E38" s="45"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9">
         <f>SUM(G32:G37)</f>
@@ -4746,76 +4672,76 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="39"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="39" t="s">
+      <c r="H42" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="40"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="40"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="40"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="40" t="s">
+      <c r="H45" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="66" t="s">
+      <c r="A46" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="66"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="35" t="s">
+      <c r="H46" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -4914,63 +4840,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4980,10 +4906,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="46"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4998,10 +4924,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="32">
         <v>44</v>
       </c>
-      <c r="F6" s="41"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>44000</v>
@@ -5017,10 +4943,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="32">
         <v>118</v>
       </c>
-      <c r="F7" s="41"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>59000</v>
@@ -5036,10 +4962,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="32">
         <v>510</v>
       </c>
-      <c r="F8" s="41"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>51000</v>
@@ -5055,8 +4981,8 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5072,8 +4998,8 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5089,8 +5015,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5103,10 +5029,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="46"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -5153,72 +5079,72 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="47"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="48" t="s">
+      <c r="H19" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
-      <c r="B20" s="69"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -5293,60 +5219,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
     </row>
     <row r="31" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -5355,10 +5281,10 @@
       <c r="D31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="46" t="s">
+      <c r="E31" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="46"/>
+      <c r="F31" s="37"/>
       <c r="G31" s="12" t="s">
         <v>5</v>
       </c>
@@ -5373,10 +5299,10 @@
       <c r="D32" s="11">
         <v>1000</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="32">
         <v>44</v>
       </c>
-      <c r="F32" s="41"/>
+      <c r="F32" s="32"/>
       <c r="G32" s="11">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>44000</v>
@@ -5392,10 +5318,10 @@
       <c r="D33" s="11">
         <v>500</v>
       </c>
-      <c r="E33" s="41">
+      <c r="E33" s="32">
         <v>118</v>
       </c>
-      <c r="F33" s="41"/>
+      <c r="F33" s="32"/>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
         <v>59000</v>
@@ -5411,10 +5337,10 @@
       <c r="D34" s="11">
         <v>100</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="32">
         <v>510</v>
       </c>
-      <c r="F34" s="41"/>
+      <c r="F34" s="32"/>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
         <v>51000</v>
@@ -5430,8 +5356,8 @@
       <c r="D35" s="11">
         <v>50</v>
       </c>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5447,8 +5373,8 @@
       <c r="D36" s="11">
         <v>20</v>
       </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
       <c r="G36" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5464,8 +5390,8 @@
       <c r="D37" s="11">
         <v>10</v>
       </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
       <c r="G37" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5478,10 +5404,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="70" t="s">
+      <c r="D38" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="70"/>
+      <c r="E38" s="48"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12">
         <f>SUM(G32:G37)</f>
@@ -5528,72 +5454,72 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="39"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="39" t="s">
+      <c r="H42" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="40"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="40"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
-      <c r="B45" s="40"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="40" t="s">
+      <c r="H45" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="66"/>
-      <c r="B46" s="66"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="35" t="s">
+      <c r="H46" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -5685,64 +5611,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="18"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5753,8 +5679,8 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="17"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -5765,8 +5691,8 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="17"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -5777,8 +5703,8 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="17"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -5789,8 +5715,8 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="17"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -5801,8 +5727,8 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="17"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -5813,8 +5739,8 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="17"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -5824,8 +5750,8 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="6"/>
@@ -5869,52 +5795,52 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -5924,9 +5850,9 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -6013,60 +5939,60 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
     </row>
     <row r="32" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -6077,10 +6003,10 @@
       <c r="D32" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="64" t="s">
+      <c r="E32" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="64"/>
+      <c r="F32" s="42"/>
       <c r="G32" s="20" t="s">
         <v>5</v>
       </c>
@@ -6095,10 +6021,10 @@
       <c r="D33" s="19">
         <v>1000</v>
       </c>
-      <c r="E33" s="41">
+      <c r="E33" s="32">
         <v>30</v>
       </c>
-      <c r="F33" s="41"/>
+      <c r="F33" s="32"/>
       <c r="G33" s="19">
         <f t="shared" ref="G33:G38" si="0">SUM(D33*E33)</f>
         <v>30000</v>
@@ -6114,10 +6040,10 @@
       <c r="D34" s="19">
         <v>500</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="32">
         <v>35</v>
       </c>
-      <c r="F34" s="41"/>
+      <c r="F34" s="32"/>
       <c r="G34" s="19">
         <f t="shared" si="0"/>
         <v>17500</v>
@@ -6133,10 +6059,10 @@
       <c r="D35" s="19">
         <v>100</v>
       </c>
-      <c r="E35" s="41">
+      <c r="E35" s="32">
         <v>425</v>
       </c>
-      <c r="F35" s="41"/>
+      <c r="F35" s="32"/>
       <c r="G35" s="19">
         <f t="shared" si="0"/>
         <v>42500</v>
@@ -6152,8 +6078,8 @@
       <c r="D36" s="19">
         <v>50</v>
       </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
       <c r="G36" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6169,8 +6095,8 @@
       <c r="D37" s="19">
         <v>20</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
       <c r="G37" s="19">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -6186,10 +6112,10 @@
       <c r="D38" s="19">
         <v>10</v>
       </c>
-      <c r="E38" s="68">
+      <c r="E38" s="46">
         <v>100</v>
       </c>
-      <c r="F38" s="68"/>
+      <c r="F38" s="46"/>
       <c r="G38" s="19">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -6202,10 +6128,10 @@
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="71" t="s">
+      <c r="D39" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="72"/>
+      <c r="E39" s="50"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20">
         <f>SUM(G33:G38)</f>
@@ -6252,58 +6178,58 @@
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="39"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="39" t="s">
+      <c r="H43" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="40"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
-      <c r="B45" s="40"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
-      <c r="B46" s="40"/>
+      <c r="A46" s="31"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="40" t="s">
+      <c r="H46" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -6313,9 +6239,9 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -6382,177 +6308,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="82">
+      <c r="A5" s="60">
         <v>1</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="73">
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="51">
         <v>1650</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="73"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="82">
+      <c r="A7" s="60">
         <v>2</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="73">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="51">
         <v>1980</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="73"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="51"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="82">
+      <c r="A9" s="60">
         <v>3</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="73">
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="51">
         <v>10538</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="73"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="51"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="82">
+      <c r="A11" s="60">
         <v>4</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="73">
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="51">
         <v>1100</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="73"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="51"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="73">
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="51">
         <f>SUM(G5:G12)</f>
         <v>15268</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="73"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="51"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
     </row>
     <row r="25" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -6563,10 +6489,10 @@
       <c r="D25" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="64" t="s">
+      <c r="E25" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="64"/>
+      <c r="F25" s="42"/>
       <c r="G25" s="20" t="s">
         <v>5</v>
       </c>
@@ -6581,8 +6507,8 @@
       <c r="D26" s="19">
         <v>1000</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
       <c r="G26" s="19">
         <f t="shared" ref="G26:G31" si="0">SUM(D26*E26)</f>
         <v>0</v>
@@ -6598,10 +6524,10 @@
       <c r="D27" s="19">
         <v>500</v>
       </c>
-      <c r="E27" s="41">
+      <c r="E27" s="32">
         <v>30</v>
       </c>
-      <c r="F27" s="41"/>
+      <c r="F27" s="32"/>
       <c r="G27" s="19">
         <f t="shared" si="0"/>
         <v>15000</v>
@@ -6617,8 +6543,8 @@
       <c r="D28" s="19">
         <v>100</v>
       </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
       <c r="G28" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6634,10 +6560,10 @@
       <c r="D29" s="19">
         <v>50</v>
       </c>
-      <c r="E29" s="41">
+      <c r="E29" s="32">
         <v>5</v>
       </c>
-      <c r="F29" s="41"/>
+      <c r="F29" s="32"/>
       <c r="G29" s="19">
         <f t="shared" si="0"/>
         <v>250</v>
@@ -6653,8 +6579,8 @@
       <c r="D30" s="19">
         <v>20</v>
       </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
       <c r="G30" s="19">
         <f>SUM(D30*E30)</f>
         <v>0</v>
@@ -6670,10 +6596,10 @@
       <c r="D31" s="19">
         <v>10</v>
       </c>
-      <c r="E31" s="68">
+      <c r="E31" s="46">
         <v>2</v>
       </c>
-      <c r="F31" s="68"/>
+      <c r="F31" s="46"/>
       <c r="G31" s="19">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6686,10 +6612,10 @@
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="71" t="s">
+      <c r="D32" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="72"/>
+      <c r="E32" s="50"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20">
         <f>SUM(G26:G31)</f>
@@ -6736,58 +6662,58 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="39"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="39" t="s">
+      <c r="H36" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="40"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="40"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="40"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="40" t="s">
+      <c r="H39" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
@@ -6797,9 +6723,9 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="33">

--- a/Others/Cash A.xlsx
+++ b/Others/Cash A.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67997160-A620-43A2-B27D-5BD5D2B81671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAA9DD0-87FF-4D60-B015-DB3DBCC92931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,17 +123,17 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Date: 24.12.19</t>
+    <t>Jafor</t>
   </si>
   <si>
-    <t>Jafor</t>
+    <t>Date: 26.12.19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,8 +234,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="15"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -370,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -424,84 +469,85 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -509,84 +555,95 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2512,60 +2569,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
@@ -2574,10 +2631,10 @@
       <c r="D5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="37"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="14" t="s">
         <v>5</v>
       </c>
@@ -2592,10 +2649,10 @@
       <c r="D6" s="13">
         <v>1000</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="30">
         <v>50</v>
       </c>
-      <c r="F6" s="32"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="13">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>50000</v>
@@ -2611,10 +2668,10 @@
       <c r="D7" s="13">
         <v>500</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="30">
         <v>16</v>
       </c>
-      <c r="F7" s="32"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="13">
         <f t="shared" si="0"/>
         <v>8000</v>
@@ -2630,10 +2687,10 @@
       <c r="D8" s="13">
         <v>100</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="30">
         <v>151</v>
       </c>
-      <c r="F8" s="32"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="13">
         <f t="shared" si="0"/>
         <v>15100</v>
@@ -2649,10 +2706,10 @@
       <c r="D9" s="13">
         <v>50</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="30">
         <v>58</v>
       </c>
-      <c r="F9" s="32"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="13">
         <f t="shared" si="0"/>
         <v>2900</v>
@@ -2668,8 +2725,8 @@
       <c r="D10" s="13">
         <v>20</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
       <c r="G10" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2685,8 +2742,8 @@
       <c r="D11" s="13">
         <v>10</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2699,10 +2756,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="37"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14">
         <f>SUM(G6:G11)</f>
@@ -2749,58 +2806,58 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="38"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -2810,11 +2867,11 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -2889,60 +2946,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -2951,10 +3008,10 @@
       <c r="D31" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="37"/>
+      <c r="F31" s="26"/>
       <c r="G31" s="15" t="s">
         <v>5</v>
       </c>
@@ -2969,10 +3026,10 @@
       <c r="D32" s="16">
         <v>1000</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E32" s="30">
         <v>50</v>
       </c>
-      <c r="F32" s="32"/>
+      <c r="F32" s="30"/>
       <c r="G32" s="16">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>50000</v>
@@ -2988,10 +3045,10 @@
       <c r="D33" s="16">
         <v>500</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="30">
         <v>116</v>
       </c>
-      <c r="F33" s="32"/>
+      <c r="F33" s="30"/>
       <c r="G33" s="16">
         <f t="shared" si="1"/>
         <v>58000</v>
@@ -3007,10 +3064,10 @@
       <c r="D34" s="16">
         <v>100</v>
       </c>
-      <c r="E34" s="32">
+      <c r="E34" s="30">
         <v>151</v>
       </c>
-      <c r="F34" s="32"/>
+      <c r="F34" s="30"/>
       <c r="G34" s="16">
         <f t="shared" si="1"/>
         <v>15100</v>
@@ -3026,10 +3083,10 @@
       <c r="D35" s="16">
         <v>50</v>
       </c>
-      <c r="E35" s="32">
+      <c r="E35" s="30">
         <v>58</v>
       </c>
-      <c r="F35" s="32"/>
+      <c r="F35" s="30"/>
       <c r="G35" s="16">
         <f t="shared" si="1"/>
         <v>2900</v>
@@ -3045,8 +3102,8 @@
       <c r="D36" s="16">
         <v>20</v>
       </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
       <c r="G36" s="16">
         <f>SUM(D36*E36)</f>
         <v>0</v>
@@ -3062,8 +3119,8 @@
       <c r="D37" s="16">
         <v>10</v>
       </c>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
       <c r="G37" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3076,10 +3133,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="29"/>
+      <c r="E38" s="38"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15">
         <f>SUM(G32:G37)</f>
@@ -3126,58 +3183,58 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="30"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="30" t="s">
+      <c r="H42" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="31" t="s">
+      <c r="H45" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
@@ -3187,11 +3244,11 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="26" t="s">
+      <c r="H46" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -3219,6 +3276,32 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -3231,32 +3314,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="H43:J44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:J45"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.25" footer="0"/>
   <pageSetup scale="85" orientation="portrait" r:id="rId1"/>
@@ -3268,8 +3325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3288,19 +3345,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
@@ -3315,7 +3372,7 @@
       <c r="H2" s="63"/>
       <c r="I2" s="63"/>
       <c r="J2" s="63"/>
-      <c r="K2" s="62"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
@@ -3330,11 +3387,11 @@
       <c r="H3" s="63"/>
       <c r="I3" s="63"/>
       <c r="J3" s="63"/>
-      <c r="K3" s="62"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="64"/>
       <c r="C4" s="64"/>
@@ -3345,350 +3402,354 @@
       <c r="H4" s="64"/>
       <c r="I4" s="64"/>
       <c r="J4" s="64"/>
-      <c r="K4" s="62"/>
+      <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="65" t="s">
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="65" t="s">
+      <c r="F5" s="67"/>
+      <c r="G5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
     </row>
     <row r="6" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="22">
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="68">
         <v>1000</v>
       </c>
-      <c r="E6" s="32">
-        <v>140</v>
-      </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="22">
+      <c r="E6" s="69">
+        <v>133</v>
+      </c>
+      <c r="F6" s="69"/>
+      <c r="G6" s="68">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
-        <v>140000</v>
-      </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
+        <v>133000</v>
+      </c>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
     </row>
     <row r="7" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="22">
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="68">
         <v>500</v>
       </c>
-      <c r="E7" s="32">
-        <v>420</v>
-      </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="22">
+      <c r="E7" s="69">
+        <v>617</v>
+      </c>
+      <c r="F7" s="69"/>
+      <c r="G7" s="68">
         <f t="shared" si="0"/>
-        <v>210000</v>
-      </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
+        <v>308500</v>
+      </c>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
     </row>
     <row r="8" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="22">
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="68">
         <v>100</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="22">
+      <c r="E8" s="69">
+        <v>468</v>
+      </c>
+      <c r="F8" s="69"/>
+      <c r="G8" s="68">
+        <f t="shared" si="0"/>
+        <v>46800</v>
+      </c>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+    </row>
+    <row r="9" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="68">
+        <v>50</v>
+      </c>
+      <c r="E9" s="69">
+        <v>34</v>
+      </c>
+      <c r="F9" s="69"/>
+      <c r="G9" s="68">
+        <f t="shared" si="0"/>
+        <v>1700</v>
+      </c>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+    </row>
+    <row r="10" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="68">
+        <v>20</v>
+      </c>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="9" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="22">
-        <v>50</v>
-      </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="22">
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+    </row>
+    <row r="11" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="68">
+        <v>10</v>
+      </c>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="22">
-        <v>20</v>
-      </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="22">
-        <v>10</v>
-      </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
     </row>
     <row r="12" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="32" t="s">
+      <c r="A12" s="65"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="22"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="68"/>
       <c r="G12" s="22">
         <f>SUM(G6:G11)</f>
-        <v>350000</v>
-      </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
+        <v>490000</v>
+      </c>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68" t="s">
+      <c r="A16" s="70"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="67"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="69" t="s">
+      <c r="E16" s="70"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="67"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="24" t="s">
+      <c r="A19" s="70"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="63" t="s">
@@ -3723,7 +3784,7 @@
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="64"/>
       <c r="C31" s="64"/>
@@ -3736,237 +3797,241 @@
       <c r="J31" s="64"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="65" t="s">
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="66" t="s">
+      <c r="E32" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="66"/>
-      <c r="G32" s="65" t="s">
+      <c r="F32" s="67"/>
+      <c r="G32" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
     </row>
     <row r="33" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="25">
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="76">
         <v>1000</v>
       </c>
-      <c r="E33" s="32">
-        <v>140</v>
-      </c>
-      <c r="F33" s="32"/>
-      <c r="G33" s="25">
+      <c r="E33" s="69">
+        <v>133</v>
+      </c>
+      <c r="F33" s="69"/>
+      <c r="G33" s="76">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
-        <v>140000</v>
-      </c>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
+        <v>133000</v>
+      </c>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
     </row>
     <row r="34" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="25">
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="76">
         <v>500</v>
       </c>
-      <c r="E34" s="32">
-        <v>420</v>
-      </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="25">
+      <c r="E34" s="69">
+        <v>617</v>
+      </c>
+      <c r="F34" s="69"/>
+      <c r="G34" s="76">
         <f t="shared" si="1"/>
-        <v>210000</v>
-      </c>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
+        <v>308500</v>
+      </c>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
     </row>
     <row r="35" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="25">
+      <c r="A35" s="65"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="76">
         <v>100</v>
       </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="25">
+      <c r="E35" s="69">
+        <v>468</v>
+      </c>
+      <c r="F35" s="69"/>
+      <c r="G35" s="76">
+        <f t="shared" si="1"/>
+        <v>46800</v>
+      </c>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+    </row>
+    <row r="36" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="65"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="76">
+        <v>50</v>
+      </c>
+      <c r="E36" s="69">
+        <v>34</v>
+      </c>
+      <c r="F36" s="69"/>
+      <c r="G36" s="76">
+        <f t="shared" si="1"/>
+        <v>1700</v>
+      </c>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+    </row>
+    <row r="37" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="65"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="76">
+        <v>20</v>
+      </c>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="76">
+        <f>SUM(D37*E37)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+    </row>
+    <row r="38" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="76">
+        <v>10</v>
+      </c>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-    </row>
-    <row r="36" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="25">
-        <v>50</v>
-      </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-    </row>
-    <row r="37" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="25">
-        <v>20</v>
-      </c>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="25">
-        <f>SUM(D37*E37)</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-    </row>
-    <row r="38" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="25">
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+    </row>
+    <row r="39" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-    </row>
-    <row r="39" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="73"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25">
+      <c r="E39" s="78"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="23">
         <f>SUM(G33:G38)</f>
-        <v>350000</v>
-      </c>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
+        <v>490000</v>
+      </c>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
+      <c r="A41" s="65"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
     </row>
     <row r="43" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="67"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="68" t="s">
+      <c r="A43" s="70"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="69" t="s">
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="69"/>
-      <c r="J43" s="69"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="74"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
+      <c r="A44" s="79"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="80"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="80"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="74"/>
-      <c r="B45" s="74"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
+      <c r="A45" s="79"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="80"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="75"/>
-      <c r="B46" s="75"/>
-      <c r="C46" s="76"/>
-      <c r="D46" s="77" t="s">
+      <c r="A46" s="81"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="I46" s="78"/>
-      <c r="J46" s="78"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="21"/>
@@ -3982,6 +4047,26 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H43:J43"/>
@@ -3996,26 +4081,6 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
@@ -4046,63 +4111,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4112,10 +4177,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="37"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4130,10 +4195,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="30">
         <v>68</v>
       </c>
-      <c r="F6" s="32"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>68000</v>
@@ -4149,10 +4214,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="30">
         <v>135</v>
       </c>
-      <c r="F7" s="32"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>67500</v>
@@ -4168,10 +4233,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="30">
         <v>53</v>
       </c>
-      <c r="F8" s="32"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>5300</v>
@@ -4187,10 +4252,10 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="30">
         <v>2</v>
       </c>
-      <c r="F9" s="32"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4206,10 +4271,10 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="30">
         <v>5</v>
       </c>
-      <c r="F10" s="32"/>
+      <c r="F10" s="30"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4225,8 +4290,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4239,10 +4304,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="37"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -4289,76 +4354,76 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="38"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="31"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="43"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -4433,60 +4498,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -4495,10 +4560,10 @@
       <c r="D31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="42"/>
+      <c r="F31" s="47"/>
       <c r="G31" s="9" t="s">
         <v>5</v>
       </c>
@@ -4672,76 +4737,76 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="30"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="30" t="s">
+      <c r="H42" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="31"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="31" t="s">
+      <c r="H45" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="44"/>
+      <c r="B46" s="43"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="26" t="s">
+      <c r="H46" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -4769,6 +4834,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A46:B46"/>
@@ -4785,30 +4874,6 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4840,63 +4905,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4906,10 +4971,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="37"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4924,10 +4989,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="30">
         <v>44</v>
       </c>
-      <c r="F6" s="32"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>44000</v>
@@ -4943,10 +5008,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="30">
         <v>118</v>
       </c>
-      <c r="F7" s="32"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>59000</v>
@@ -4962,10 +5027,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="30">
         <v>510</v>
       </c>
-      <c r="F8" s="32"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>51000</v>
@@ -4981,8 +5046,8 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4998,8 +5063,8 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5015,8 +5080,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5029,10 +5094,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="37"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -5079,72 +5144,72 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="38"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -5219,60 +5284,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -5281,10 +5346,10 @@
       <c r="D31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="37"/>
+      <c r="F31" s="26"/>
       <c r="G31" s="12" t="s">
         <v>5</v>
       </c>
@@ -5299,10 +5364,10 @@
       <c r="D32" s="11">
         <v>1000</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E32" s="30">
         <v>44</v>
       </c>
-      <c r="F32" s="32"/>
+      <c r="F32" s="30"/>
       <c r="G32" s="11">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>44000</v>
@@ -5318,10 +5383,10 @@
       <c r="D33" s="11">
         <v>500</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="30">
         <v>118</v>
       </c>
-      <c r="F33" s="32"/>
+      <c r="F33" s="30"/>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
         <v>59000</v>
@@ -5337,10 +5402,10 @@
       <c r="D34" s="11">
         <v>100</v>
       </c>
-      <c r="E34" s="32">
+      <c r="E34" s="30">
         <v>510</v>
       </c>
-      <c r="F34" s="32"/>
+      <c r="F34" s="30"/>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
         <v>51000</v>
@@ -5356,8 +5421,8 @@
       <c r="D35" s="11">
         <v>50</v>
       </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5373,8 +5438,8 @@
       <c r="D36" s="11">
         <v>20</v>
       </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
       <c r="G36" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5390,8 +5455,8 @@
       <c r="D37" s="11">
         <v>10</v>
       </c>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
       <c r="G37" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5454,72 +5519,72 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="30"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="30" t="s">
+      <c r="H42" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="31" t="s">
+      <c r="H45" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="26" t="s">
+      <c r="H46" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -5547,16 +5612,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="H20:J20"/>
@@ -5569,24 +5642,16 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="H43:J44"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5611,64 +5676,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="18"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5679,8 +5744,8 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="17"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -5691,8 +5756,8 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="17"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -5703,8 +5768,8 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="17"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -5715,8 +5780,8 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="17"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -5727,8 +5792,8 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
       <c r="G10" s="17"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -5739,8 +5804,8 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="17"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -5750,8 +5815,8 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="6"/>
@@ -5795,52 +5860,52 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -5850,9 +5915,9 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -5939,60 +6004,60 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
     </row>
     <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -6003,10 +6068,10 @@
       <c r="D32" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="42"/>
+      <c r="F32" s="47"/>
       <c r="G32" s="20" t="s">
         <v>5</v>
       </c>
@@ -6021,10 +6086,10 @@
       <c r="D33" s="19">
         <v>1000</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="30">
         <v>30</v>
       </c>
-      <c r="F33" s="32"/>
+      <c r="F33" s="30"/>
       <c r="G33" s="19">
         <f t="shared" ref="G33:G38" si="0">SUM(D33*E33)</f>
         <v>30000</v>
@@ -6040,10 +6105,10 @@
       <c r="D34" s="19">
         <v>500</v>
       </c>
-      <c r="E34" s="32">
+      <c r="E34" s="30">
         <v>35</v>
       </c>
-      <c r="F34" s="32"/>
+      <c r="F34" s="30"/>
       <c r="G34" s="19">
         <f t="shared" si="0"/>
         <v>17500</v>
@@ -6059,10 +6124,10 @@
       <c r="D35" s="19">
         <v>100</v>
       </c>
-      <c r="E35" s="32">
+      <c r="E35" s="30">
         <v>425</v>
       </c>
-      <c r="F35" s="32"/>
+      <c r="F35" s="30"/>
       <c r="G35" s="19">
         <f t="shared" si="0"/>
         <v>42500</v>
@@ -6078,8 +6143,8 @@
       <c r="D36" s="19">
         <v>50</v>
       </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
       <c r="G36" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6128,10 +6193,10 @@
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="49" t="s">
+      <c r="D39" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="50"/>
+      <c r="E39" s="51"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20">
         <f>SUM(G33:G38)</f>
@@ -6178,58 +6243,58 @@
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="30"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="30" t="s">
+      <c r="H43" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="31" t="s">
+      <c r="H46" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -6239,12 +6304,38 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -6257,32 +6348,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6308,177 +6373,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="60">
         <v>1</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="51">
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="59">
         <v>1650</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="60"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="51"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="60">
         <v>2</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="51">
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="59">
         <v>1980</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="60"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="51"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="59"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="60">
         <v>3</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="51">
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="59">
         <v>10538</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="60"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="51"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="60">
         <v>4</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="51">
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="59">
         <v>1100</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="60"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="51"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="51">
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="59">
         <f>SUM(G5:G12)</f>
         <v>15268</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="51"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="59"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -6489,10 +6554,10 @@
       <c r="D25" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="42"/>
+      <c r="F25" s="47"/>
       <c r="G25" s="20" t="s">
         <v>5</v>
       </c>
@@ -6507,8 +6572,8 @@
       <c r="D26" s="19">
         <v>1000</v>
       </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
       <c r="G26" s="19">
         <f t="shared" ref="G26:G31" si="0">SUM(D26*E26)</f>
         <v>0</v>
@@ -6524,10 +6589,10 @@
       <c r="D27" s="19">
         <v>500</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="30">
         <v>30</v>
       </c>
-      <c r="F27" s="32"/>
+      <c r="F27" s="30"/>
       <c r="G27" s="19">
         <f t="shared" si="0"/>
         <v>15000</v>
@@ -6543,8 +6608,8 @@
       <c r="D28" s="19">
         <v>100</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
       <c r="G28" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6560,10 +6625,10 @@
       <c r="D29" s="19">
         <v>50</v>
       </c>
-      <c r="E29" s="32">
+      <c r="E29" s="30">
         <v>5</v>
       </c>
-      <c r="F29" s="32"/>
+      <c r="F29" s="30"/>
       <c r="G29" s="19">
         <f t="shared" si="0"/>
         <v>250</v>
@@ -6612,10 +6677,10 @@
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="50"/>
+      <c r="E32" s="51"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20">
         <f>SUM(G26:G31)</f>
@@ -6662,58 +6727,58 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="30"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="30" t="s">
+      <c r="H36" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="31" t="s">
+      <c r="H39" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
@@ -6723,12 +6788,29 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="H37:J38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A13:F14"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A23:J23"/>
@@ -6745,23 +6827,6 @@
     <mergeCell ref="B5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="B7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A13:F14"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="H37:J38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="H39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="portrait" r:id="rId1"/>

--- a/Others/Cash A.xlsx
+++ b/Others/Cash A.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAA9DD0-87FF-4D60-B015-DB3DBCC92931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258F75FC-EDFE-4817-A4B6-469142B449F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,10 +123,10 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Jafor</t>
+    <t>Date: 30.12.19</t>
   </si>
   <si>
-    <t>Date: 26.12.19</t>
+    <t>Jafor Iqbal</t>
   </si>
 </sst>
 </file>
@@ -476,6 +476,36 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -524,9 +554,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -582,67 +643,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2569,60 +2569,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
@@ -2631,10 +2631,10 @@
       <c r="D5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="14" t="s">
         <v>5</v>
       </c>
@@ -2649,10 +2649,10 @@
       <c r="D6" s="13">
         <v>1000</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="40">
         <v>50</v>
       </c>
-      <c r="F6" s="30"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="13">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>50000</v>
@@ -2668,10 +2668,10 @@
       <c r="D7" s="13">
         <v>500</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="40">
         <v>16</v>
       </c>
-      <c r="F7" s="30"/>
+      <c r="F7" s="40"/>
       <c r="G7" s="13">
         <f t="shared" si="0"/>
         <v>8000</v>
@@ -2687,10 +2687,10 @@
       <c r="D8" s="13">
         <v>100</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="40">
         <v>151</v>
       </c>
-      <c r="F8" s="30"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="13">
         <f t="shared" si="0"/>
         <v>15100</v>
@@ -2706,10 +2706,10 @@
       <c r="D9" s="13">
         <v>50</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="40">
         <v>58</v>
       </c>
-      <c r="F9" s="30"/>
+      <c r="F9" s="40"/>
       <c r="G9" s="13">
         <f t="shared" si="0"/>
         <v>2900</v>
@@ -2725,8 +2725,8 @@
       <c r="D10" s="13">
         <v>20</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
       <c r="G10" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2742,8 +2742,8 @@
       <c r="D11" s="13">
         <v>10</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
       <c r="G11" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2756,10 +2756,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="26"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14">
         <f>SUM(G6:G11)</f>
@@ -2806,58 +2806,58 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="31"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -2867,11 +2867,11 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="34" t="s">
+      <c r="H20" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -2946,60 +2946,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -3008,10 +3008,10 @@
       <c r="D31" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="26"/>
+      <c r="F31" s="36"/>
       <c r="G31" s="15" t="s">
         <v>5</v>
       </c>
@@ -3026,10 +3026,10 @@
       <c r="D32" s="16">
         <v>1000</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="40">
         <v>50</v>
       </c>
-      <c r="F32" s="30"/>
+      <c r="F32" s="40"/>
       <c r="G32" s="16">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>50000</v>
@@ -3045,10 +3045,10 @@
       <c r="D33" s="16">
         <v>500</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="40">
         <v>116</v>
       </c>
-      <c r="F33" s="30"/>
+      <c r="F33" s="40"/>
       <c r="G33" s="16">
         <f t="shared" si="1"/>
         <v>58000</v>
@@ -3064,10 +3064,10 @@
       <c r="D34" s="16">
         <v>100</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="40">
         <v>151</v>
       </c>
-      <c r="F34" s="30"/>
+      <c r="F34" s="40"/>
       <c r="G34" s="16">
         <f t="shared" si="1"/>
         <v>15100</v>
@@ -3083,10 +3083,10 @@
       <c r="D35" s="16">
         <v>50</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="40">
         <v>58</v>
       </c>
-      <c r="F35" s="30"/>
+      <c r="F35" s="40"/>
       <c r="G35" s="16">
         <f t="shared" si="1"/>
         <v>2900</v>
@@ -3102,8 +3102,8 @@
       <c r="D36" s="16">
         <v>20</v>
       </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
       <c r="G36" s="16">
         <f>SUM(D36*E36)</f>
         <v>0</v>
@@ -3119,8 +3119,8 @@
       <c r="D37" s="16">
         <v>10</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
       <c r="G37" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3133,10 +3133,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="38"/>
+      <c r="E38" s="48"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15">
         <f>SUM(G32:G37)</f>
@@ -3183,58 +3183,58 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="39"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="39" t="s">
+      <c r="H42" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="32" t="s">
+      <c r="H45" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
@@ -3244,11 +3244,11 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="34" t="s">
+      <c r="H46" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -3325,8 +3325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="M53" sqref="M53"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3345,693 +3345,693 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
       <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
       <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
+      <c r="A4" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="67"/>
-      <c r="G5" s="66" t="s">
+      <c r="F5" s="60"/>
+      <c r="G5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="68">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="28">
         <v>1000</v>
       </c>
-      <c r="E6" s="69">
-        <v>133</v>
-      </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="68">
+      <c r="E6" s="61">
+        <v>170</v>
+      </c>
+      <c r="F6" s="61"/>
+      <c r="G6" s="28">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
-        <v>133000</v>
-      </c>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
+        <v>170000</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="68">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="28">
         <v>500</v>
       </c>
-      <c r="E7" s="69">
-        <v>617</v>
-      </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="68">
+      <c r="E7" s="61">
+        <v>428</v>
+      </c>
+      <c r="F7" s="61"/>
+      <c r="G7" s="28">
         <f t="shared" si="0"/>
-        <v>308500</v>
-      </c>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
+        <v>214000</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="68">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="28">
         <v>100</v>
       </c>
-      <c r="E8" s="69">
-        <v>468</v>
-      </c>
-      <c r="F8" s="69"/>
-      <c r="G8" s="68">
+      <c r="E8" s="61">
+        <v>123</v>
+      </c>
+      <c r="F8" s="61"/>
+      <c r="G8" s="28">
         <f t="shared" si="0"/>
-        <v>46800</v>
-      </c>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
+        <v>12300</v>
+      </c>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="68">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="28">
         <v>50</v>
       </c>
-      <c r="E9" s="69">
-        <v>34</v>
-      </c>
-      <c r="F9" s="69"/>
-      <c r="G9" s="68">
+      <c r="E9" s="61">
+        <v>74</v>
+      </c>
+      <c r="F9" s="61"/>
+      <c r="G9" s="28">
         <f t="shared" si="0"/>
-        <v>1700</v>
-      </c>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
+        <v>3700</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="68">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="28">
         <v>20</v>
       </c>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="68">
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="68">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="28">
         <v>10</v>
       </c>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="68">
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="69" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="69"/>
-      <c r="F12" s="68"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="28"/>
       <c r="G12" s="22">
         <f>SUM(G6:G11)</f>
-        <v>490000</v>
-      </c>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
+        <v>400000</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="70"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="72" t="s">
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="70"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="70"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="73" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
       <c r="K30" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
+      <c r="A31" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="66" t="s">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="67" t="s">
+      <c r="E32" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="67"/>
-      <c r="G32" s="66" t="s">
+      <c r="F32" s="60"/>
+      <c r="G32" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
     </row>
     <row r="33" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="76">
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="32">
         <v>1000</v>
       </c>
-      <c r="E33" s="69">
-        <v>133</v>
-      </c>
-      <c r="F33" s="69"/>
-      <c r="G33" s="76">
+      <c r="E33" s="61">
+        <v>170</v>
+      </c>
+      <c r="F33" s="61"/>
+      <c r="G33" s="32">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
-        <v>133000</v>
-      </c>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
+        <v>170000</v>
+      </c>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="76">
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="32">
         <v>500</v>
       </c>
-      <c r="E34" s="69">
-        <v>617</v>
-      </c>
-      <c r="F34" s="69"/>
-      <c r="G34" s="76">
+      <c r="E34" s="61">
+        <v>428</v>
+      </c>
+      <c r="F34" s="61"/>
+      <c r="G34" s="32">
         <f t="shared" si="1"/>
-        <v>308500</v>
-      </c>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
+        <v>214000</v>
+      </c>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="76">
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="32">
         <v>100</v>
       </c>
-      <c r="E35" s="69">
-        <v>468</v>
-      </c>
-      <c r="F35" s="69"/>
-      <c r="G35" s="76">
+      <c r="E35" s="61">
+        <v>123</v>
+      </c>
+      <c r="F35" s="61"/>
+      <c r="G35" s="32">
         <f t="shared" si="1"/>
-        <v>46800</v>
-      </c>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
+        <v>12300</v>
+      </c>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="76">
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="32">
         <v>50</v>
       </c>
-      <c r="E36" s="69">
-        <v>34</v>
-      </c>
-      <c r="F36" s="69"/>
-      <c r="G36" s="76">
+      <c r="E36" s="61">
+        <v>74</v>
+      </c>
+      <c r="F36" s="61"/>
+      <c r="G36" s="32">
         <f t="shared" si="1"/>
-        <v>1700</v>
-      </c>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
+        <v>3700</v>
+      </c>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
     </row>
     <row r="37" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="65"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="76">
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="32">
         <v>20</v>
       </c>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="76">
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="32">
         <f>SUM(D37*E37)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
     </row>
     <row r="38" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="76">
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="32">
         <v>10</v>
       </c>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="76">
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
     </row>
     <row r="39" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="77" t="s">
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="78"/>
-      <c r="F39" s="76"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="32"/>
       <c r="G39" s="23">
         <f>SUM(G33:G38)</f>
-        <v>490000</v>
-      </c>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
+        <v>400000</v>
+      </c>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="70"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71" t="s">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="72" t="s">
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="79"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="80"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="79"/>
-      <c r="B45" s="79"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="80"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="81"/>
-      <c r="B46" s="81"/>
-      <c r="C46" s="82"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="21"/>
@@ -4041,9 +4041,9 @@
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -4111,63 +4111,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4177,10 +4177,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4195,10 +4195,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="40">
         <v>68</v>
       </c>
-      <c r="F6" s="30"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>68000</v>
@@ -4214,10 +4214,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="40">
         <v>135</v>
       </c>
-      <c r="F7" s="30"/>
+      <c r="F7" s="40"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>67500</v>
@@ -4233,10 +4233,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="40">
         <v>53</v>
       </c>
-      <c r="F8" s="30"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>5300</v>
@@ -4252,10 +4252,10 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="40">
         <v>2</v>
       </c>
-      <c r="F9" s="30"/>
+      <c r="F9" s="40"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4271,10 +4271,10 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="40">
         <v>5</v>
       </c>
-      <c r="F10" s="30"/>
+      <c r="F10" s="40"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4290,8 +4290,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4304,10 +4304,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="26"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -4354,76 +4354,76 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="31"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="32"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="44"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="34" t="s">
+      <c r="H20" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -4498,60 +4498,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
     </row>
     <row r="31" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -4560,10 +4560,10 @@
       <c r="D31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="47" t="s">
+      <c r="E31" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="47"/>
+      <c r="F31" s="68"/>
       <c r="G31" s="9" t="s">
         <v>5</v>
       </c>
@@ -4578,10 +4578,10 @@
       <c r="D32" s="2">
         <v>1000</v>
       </c>
-      <c r="E32" s="46">
+      <c r="E32" s="67">
         <v>68</v>
       </c>
-      <c r="F32" s="46"/>
+      <c r="F32" s="67"/>
       <c r="G32" s="2">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>68000</v>
@@ -4597,10 +4597,10 @@
       <c r="D33" s="2">
         <v>500</v>
       </c>
-      <c r="E33" s="46">
+      <c r="E33" s="67">
         <v>135</v>
       </c>
-      <c r="F33" s="46"/>
+      <c r="F33" s="67"/>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>67500</v>
@@ -4616,10 +4616,10 @@
       <c r="D34" s="2">
         <v>100</v>
       </c>
-      <c r="E34" s="46">
+      <c r="E34" s="67">
         <v>53</v>
       </c>
-      <c r="F34" s="46"/>
+      <c r="F34" s="67"/>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
         <v>5300</v>
@@ -4635,10 +4635,10 @@
       <c r="D35" s="2">
         <v>50</v>
       </c>
-      <c r="E35" s="46">
+      <c r="E35" s="67">
         <v>2</v>
       </c>
-      <c r="F35" s="46"/>
+      <c r="F35" s="67"/>
       <c r="G35" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4654,10 +4654,10 @@
       <c r="D36" s="2">
         <v>20</v>
       </c>
-      <c r="E36" s="46">
+      <c r="E36" s="67">
         <v>5</v>
       </c>
-      <c r="F36" s="46"/>
+      <c r="F36" s="67"/>
       <c r="G36" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4673,8 +4673,8 @@
       <c r="D37" s="2">
         <v>10</v>
       </c>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4687,10 +4687,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="45" t="s">
+      <c r="D38" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="45"/>
+      <c r="E38" s="66"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9">
         <f>SUM(G32:G37)</f>
@@ -4737,76 +4737,76 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="39"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="39" t="s">
+      <c r="H42" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="32"/>
+      <c r="B45" s="42"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="32" t="s">
+      <c r="H45" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="43"/>
+      <c r="B46" s="64"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="34" t="s">
+      <c r="H46" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -4905,63 +4905,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4971,10 +4971,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4989,10 +4989,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="40">
         <v>44</v>
       </c>
-      <c r="F6" s="30"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>44000</v>
@@ -5008,10 +5008,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="40">
         <v>118</v>
       </c>
-      <c r="F7" s="30"/>
+      <c r="F7" s="40"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>59000</v>
@@ -5027,10 +5027,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="40">
         <v>510</v>
       </c>
-      <c r="F8" s="30"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>51000</v>
@@ -5046,8 +5046,8 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5063,8 +5063,8 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5080,8 +5080,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5094,10 +5094,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="26"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -5144,72 +5144,72 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="31"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="34" t="s">
+      <c r="H20" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -5284,60 +5284,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
     </row>
     <row r="31" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -5346,10 +5346,10 @@
       <c r="D31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="26"/>
+      <c r="F31" s="36"/>
       <c r="G31" s="12" t="s">
         <v>5</v>
       </c>
@@ -5364,10 +5364,10 @@
       <c r="D32" s="11">
         <v>1000</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="40">
         <v>44</v>
       </c>
-      <c r="F32" s="30"/>
+      <c r="F32" s="40"/>
       <c r="G32" s="11">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>44000</v>
@@ -5383,10 +5383,10 @@
       <c r="D33" s="11">
         <v>500</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="40">
         <v>118</v>
       </c>
-      <c r="F33" s="30"/>
+      <c r="F33" s="40"/>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
         <v>59000</v>
@@ -5402,10 +5402,10 @@
       <c r="D34" s="11">
         <v>100</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="40">
         <v>510</v>
       </c>
-      <c r="F34" s="30"/>
+      <c r="F34" s="40"/>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
         <v>51000</v>
@@ -5421,8 +5421,8 @@
       <c r="D35" s="11">
         <v>50</v>
       </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5438,8 +5438,8 @@
       <c r="D36" s="11">
         <v>20</v>
       </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
       <c r="G36" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5455,8 +5455,8 @@
       <c r="D37" s="11">
         <v>10</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
       <c r="G37" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5469,10 +5469,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="48" t="s">
+      <c r="D38" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="48"/>
+      <c r="E38" s="69"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12">
         <f>SUM(G32:G37)</f>
@@ -5519,72 +5519,72 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="39"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="39" t="s">
+      <c r="H42" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="32" t="s">
+      <c r="H45" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
+      <c r="A46" s="64"/>
+      <c r="B46" s="64"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="34" t="s">
+      <c r="H46" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -5676,64 +5676,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="18"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5744,8 +5744,8 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="17"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -5756,8 +5756,8 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
       <c r="G7" s="17"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -5768,8 +5768,8 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="17"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -5780,8 +5780,8 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
       <c r="G9" s="17"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -5792,8 +5792,8 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
       <c r="G10" s="17"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -5804,8 +5804,8 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
       <c r="G11" s="17"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -5815,8 +5815,8 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="6"/>
@@ -5860,52 +5860,52 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -5915,9 +5915,9 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -6004,60 +6004,60 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
     </row>
     <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
     </row>
     <row r="32" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -6068,10 +6068,10 @@
       <c r="D32" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="47" t="s">
+      <c r="E32" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="47"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="20" t="s">
         <v>5</v>
       </c>
@@ -6086,10 +6086,10 @@
       <c r="D33" s="19">
         <v>1000</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="40">
         <v>30</v>
       </c>
-      <c r="F33" s="30"/>
+      <c r="F33" s="40"/>
       <c r="G33" s="19">
         <f t="shared" ref="G33:G38" si="0">SUM(D33*E33)</f>
         <v>30000</v>
@@ -6105,10 +6105,10 @@
       <c r="D34" s="19">
         <v>500</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="40">
         <v>35</v>
       </c>
-      <c r="F34" s="30"/>
+      <c r="F34" s="40"/>
       <c r="G34" s="19">
         <f t="shared" si="0"/>
         <v>17500</v>
@@ -6124,10 +6124,10 @@
       <c r="D35" s="19">
         <v>100</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="40">
         <v>425</v>
       </c>
-      <c r="F35" s="30"/>
+      <c r="F35" s="40"/>
       <c r="G35" s="19">
         <f t="shared" si="0"/>
         <v>42500</v>
@@ -6143,8 +6143,8 @@
       <c r="D36" s="19">
         <v>50</v>
       </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
       <c r="G36" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6160,8 +6160,8 @@
       <c r="D37" s="19">
         <v>20</v>
       </c>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
       <c r="G37" s="19">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -6177,10 +6177,10 @@
       <c r="D38" s="19">
         <v>10</v>
       </c>
-      <c r="E38" s="46">
+      <c r="E38" s="67">
         <v>100</v>
       </c>
-      <c r="F38" s="46"/>
+      <c r="F38" s="67"/>
       <c r="G38" s="19">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -6193,10 +6193,10 @@
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="51"/>
+      <c r="E39" s="72"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20">
         <f>SUM(G33:G38)</f>
@@ -6243,58 +6243,58 @@
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="39"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="39" t="s">
+      <c r="H43" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="32"/>
-      <c r="B46" s="32"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="32" t="s">
+      <c r="H46" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -6304,9 +6304,9 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -6373,177 +6373,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="60">
+      <c r="A5" s="81">
         <v>1</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="59">
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="80">
         <v>1650</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="59"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="80"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="60">
+      <c r="A7" s="81">
         <v>2</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="59">
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="80">
         <v>1980</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="59"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="80"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="60">
+      <c r="A9" s="81">
         <v>3</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="59">
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="80">
         <v>10538</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="59"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="80"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="60">
+      <c r="A11" s="81">
         <v>4</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="59">
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="80">
         <v>1100</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="59"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="80"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="59">
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="80">
         <f>SUM(G5:G12)</f>
         <v>15268</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="59"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="80"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
     </row>
     <row r="25" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -6554,10 +6554,10 @@
       <c r="D25" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="47"/>
+      <c r="F25" s="68"/>
       <c r="G25" s="20" t="s">
         <v>5</v>
       </c>
@@ -6572,8 +6572,8 @@
       <c r="D26" s="19">
         <v>1000</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
       <c r="G26" s="19">
         <f t="shared" ref="G26:G31" si="0">SUM(D26*E26)</f>
         <v>0</v>
@@ -6589,10 +6589,10 @@
       <c r="D27" s="19">
         <v>500</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="40">
         <v>30</v>
       </c>
-      <c r="F27" s="30"/>
+      <c r="F27" s="40"/>
       <c r="G27" s="19">
         <f t="shared" si="0"/>
         <v>15000</v>
@@ -6608,8 +6608,8 @@
       <c r="D28" s="19">
         <v>100</v>
       </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
       <c r="G28" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6625,10 +6625,10 @@
       <c r="D29" s="19">
         <v>50</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="40">
         <v>5</v>
       </c>
-      <c r="F29" s="30"/>
+      <c r="F29" s="40"/>
       <c r="G29" s="19">
         <f t="shared" si="0"/>
         <v>250</v>
@@ -6644,8 +6644,8 @@
       <c r="D30" s="19">
         <v>20</v>
       </c>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
       <c r="G30" s="19">
         <f>SUM(D30*E30)</f>
         <v>0</v>
@@ -6661,10 +6661,10 @@
       <c r="D31" s="19">
         <v>10</v>
       </c>
-      <c r="E31" s="46">
+      <c r="E31" s="67">
         <v>2</v>
       </c>
-      <c r="F31" s="46"/>
+      <c r="F31" s="67"/>
       <c r="G31" s="19">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6677,10 +6677,10 @@
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="51"/>
+      <c r="E32" s="72"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20">
         <f>SUM(G26:G31)</f>
@@ -6727,58 +6727,58 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="39"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="39" t="s">
+      <c r="H36" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="32" t="s">
+      <c r="H39" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
@@ -6788,9 +6788,9 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="33">
